--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -7,26 +7,26 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
-    <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
-    <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
-    <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
-    <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
-    <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
-    <sheet name="Sheet17" sheetId="17" r:id="rId17"/>
-    <sheet name="Sheet18" sheetId="18" r:id="rId18"/>
-    <sheet name="Sheet19" sheetId="19" r:id="rId19"/>
-    <sheet name="Sheet20" sheetId="20" r:id="rId20"/>
+    <sheet name="lastUpdate" sheetId="1" r:id="rId1"/>
+    <sheet name="amount_recovered" sheetId="2" r:id="rId2"/>
+    <sheet name="hard_moderate" sheetId="3" r:id="rId3"/>
+    <sheet name="amount" sheetId="4" r:id="rId4"/>
+    <sheet name="home_hotel_hospital" sheetId="5" r:id="rId5"/>
+    <sheet name="new_hospitalized_Counthospita" sheetId="6" r:id="rId6"/>
+    <sheet name="amount6" sheetId="7" r:id="rId7"/>
+    <sheet name="amount7" sheetId="8" r:id="rId8"/>
+    <sheet name="amount_amountVirusDiagnosis_p" sheetId="9" r:id="rId9"/>
+    <sheet name="amount_recovered9" sheetId="10" r:id="rId10"/>
+    <sheet name="new_hospitalized_Counthospita10" sheetId="11" r:id="rId11"/>
+    <sheet name="section_male_female" sheetId="12" r:id="rId12"/>
+    <sheet name="Verified_Doctors_Verified_Nur" sheetId="13" r:id="rId13"/>
+    <sheet name="amount_amountVirusDiagnosis_p13" sheetId="14" r:id="rId14"/>
+    <sheet name="city_sickCount_actualSick_ver" sheetId="15" r:id="rId15"/>
+    <sheet name="name_coronaOccupancy_normalOc" sheetId="16" r:id="rId16"/>
+    <sheet name="dailyDoublingRate_numberOfDou" sheetId="17" r:id="rId17"/>
+    <sheet name="new_hospitalized_Counthospita17" sheetId="18" r:id="rId18"/>
+    <sheet name="hard_moderate18" sheetId="19" r:id="rId19"/>
+    <sheet name="amount19" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -2139,6 +2139,9 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -2162,6 +2165,11 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -4639,6 +4647,22 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
@@ -13672,6 +13696,11 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -13806,6 +13835,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -13853,6 +13889,12 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -17156,6 +17198,14 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -22609,6 +22659,12 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -23088,6 +23144,11 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -25503,6 +25564,22 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
@@ -34536,6 +34613,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -34573,6 +34654,11 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -37050,6 +37136,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -37127,6 +37217,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -37164,6 +37258,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -37201,6 +37299,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -37246,6 +37348,22 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
@@ -46279,6 +46397,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -47932,6 +48054,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -49742,6 +49868,12 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -731,10 +731,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-21T19:39:49.398Z</t>
-  </si>
-  <si>
-    <t>2020-09-22T19:39:49.398Z</t>
+    <t>2020-09-21T21:06:52.738Z</t>
+  </si>
+  <si>
+    <t>2020-09-22T21:06:52.738Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -731,10 +731,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-21T21:06:52.738Z</t>
-  </si>
-  <si>
-    <t>2020-09-22T21:06:52.738Z</t>
+    <t>2020-09-21T22:06:55.401Z</t>
+  </si>
+  <si>
+    <t>2020-09-22T22:06:55.401Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -731,10 +731,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-21T22:06:55.401Z</t>
-  </si>
-  <si>
-    <t>2020-09-22T22:06:55.401Z</t>
+    <t>2020-09-21T23:06:59.612Z</t>
+  </si>
+  <si>
+    <t>2020-09-22T23:06:59.612Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2785" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2786" uniqueCount="591">
   <si>
     <t>lastUpdate</t>
   </si>
@@ -731,10 +731,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-21T23:06:59.612Z</t>
-  </si>
-  <si>
-    <t>2020-09-22T23:06:59.612Z</t>
+    <t>2020-09-22T00:22:06.515Z</t>
+  </si>
+  <si>
+    <t>2020-09-23T00:22:06.515Z</t>
   </si>
   <si>
     <t>home</t>
@@ -23109,7 +23109,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C224"/>
+  <dimension ref="A1:C225"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -25531,6 +25531,17 @@
       </c>
       <c r="C224">
         <v>-22.98885594700047</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>228</v>
+      </c>
+      <c r="B225">
+        <v>-14.63831158369583</v>
+      </c>
+      <c r="C225">
+        <v>-4.379446018998195</v>
       </c>
     </row>
   </sheetData>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -731,10 +731,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-22T00:22:06.515Z</t>
-  </si>
-  <si>
-    <t>2020-09-23T00:22:06.515Z</t>
+    <t>2020-09-22T01:13:10.395Z</t>
+  </si>
+  <si>
+    <t>2020-09-23T01:13:10.395Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -731,10 +731,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-22T01:13:10.395Z</t>
-  </si>
-  <si>
-    <t>2020-09-23T01:13:10.395Z</t>
+    <t>2020-09-22T02:07:14.836Z</t>
+  </si>
+  <si>
+    <t>2020-09-23T02:07:14.836Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -731,10 +731,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-22T02:07:14.836Z</t>
-  </si>
-  <si>
-    <t>2020-09-23T02:07:14.836Z</t>
+    <t>2020-09-22T03:07:18.113Z</t>
+  </si>
+  <si>
+    <t>2020-09-23T03:07:18.113Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -731,10 +731,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-22T03:07:18.113Z</t>
-  </si>
-  <si>
-    <t>2020-09-23T03:07:18.113Z</t>
+    <t>2020-09-22T04:07:21.980Z</t>
+  </si>
+  <si>
+    <t>2020-09-23T04:07:21.980Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -731,10 +731,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-22T04:07:21.980Z</t>
-  </si>
-  <si>
-    <t>2020-09-23T04:07:21.980Z</t>
+    <t>2020-09-22T05:07:26.717Z</t>
+  </si>
+  <si>
+    <t>2020-09-23T05:07:26.717Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -731,10 +731,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-22T05:07:26.717Z</t>
-  </si>
-  <si>
-    <t>2020-09-23T05:07:26.717Z</t>
+    <t>2020-09-22T06:07:28.956Z</t>
+  </si>
+  <si>
+    <t>2020-09-23T06:07:28.956Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -731,10 +731,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-22T06:07:28.956Z</t>
-  </si>
-  <si>
-    <t>2020-09-23T06:07:28.956Z</t>
+    <t>2020-09-22T07:07:30.940Z</t>
+  </si>
+  <si>
+    <t>2020-09-23T07:07:30.940Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -731,10 +731,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-22T07:07:30.940Z</t>
-  </si>
-  <si>
-    <t>2020-09-23T07:07:30.940Z</t>
+    <t>2020-09-22T08:07:33.333Z</t>
+  </si>
+  <si>
+    <t>2020-09-23T08:07:33.333Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -27,13 +27,14 @@
     <sheet name="hospitalStatus" sheetId="18" r:id="rId18"/>
     <sheet name="doublingRate" sheetId="19" r:id="rId19"/>
     <sheet name="calculatedVerified" sheetId="20" r:id="rId20"/>
+    <sheet name="weeklyDead_computed" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2790" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2822" uniqueCount="592">
   <si>
     <t>lastUpdate</t>
   </si>
@@ -734,10 +735,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-22T11:04:38.865Z</t>
-  </si>
-  <si>
-    <t>2020-09-23T11:04:38.865Z</t>
+    <t>2020-09-22T12:07:40.497Z</t>
+  </si>
+  <si>
+    <t>2020-09-23T12:07:40.497Z</t>
   </si>
   <si>
     <t>home</t>
@@ -32575,6 +32576,271 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>190</v>
+      </c>
+      <c r="B25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B26">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>204</v>
+      </c>
+      <c r="B27">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>211</v>
+      </c>
+      <c r="B28">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>218</v>
+      </c>
+      <c r="B29">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>225</v>
+      </c>
+      <c r="B30">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>229</v>
+      </c>
+      <c r="B31">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C226"/>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2822" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2853" uniqueCount="653">
   <si>
     <t>lastUpdate</t>
   </si>
@@ -735,10 +735,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-22T12:07:40.497Z</t>
-  </si>
-  <si>
-    <t>2020-09-23T12:07:40.497Z</t>
+    <t>2020-09-22T13:07:42.787Z</t>
+  </si>
+  <si>
+    <t>2020-09-23T13:07:42.787Z</t>
   </si>
   <si>
     <t>home</t>
@@ -1810,6 +1810,189 @@
   </si>
   <si>
     <t>numberOfDoublingDays</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>2020-03-07T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-03-02T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-03-14T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-03-08T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-03-21T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-03-15T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-03-28T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-03-22T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-04-04T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-03-29T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-04-11T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-04-05T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-04-18T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-04-12T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-04-25T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-04-19T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-02T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-04-26T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-09T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-03T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-16T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-10T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-23T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-17T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-30T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-24T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-06-06T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-31T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-06-13T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-06-07T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-06-20T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-06-14T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-06-27T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-06-21T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-07-04T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-06-28T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-07-11T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-07-05T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-07-18T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-07-12T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-07-25T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-07-19T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-08-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-07-26T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-08-08T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-08-02T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-08-15T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-08-09T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-08-22T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-08-16T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-08-29T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-08-23T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-09-05T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-08-30T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-09-12T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-09-06T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-09-19T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-09-13T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-09-23T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-09-20T00:00:00Z</t>
   </si>
 </sst>
 </file>
@@ -32578,261 +32761,355 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2">
+        <v>593</v>
+      </c>
+      <c r="B2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>595</v>
+      </c>
+      <c r="B3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>601</v>
+      </c>
+      <c r="B6" t="s">
+        <v>602</v>
+      </c>
+      <c r="C6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>603</v>
+      </c>
+      <c r="B7" t="s">
+        <v>604</v>
+      </c>
+      <c r="C7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>605</v>
+      </c>
+      <c r="B8" t="s">
+        <v>606</v>
+      </c>
+      <c r="C8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>607</v>
+      </c>
+      <c r="B9" t="s">
+        <v>608</v>
+      </c>
+      <c r="C9">
         <v>36</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>609</v>
+      </c>
+      <c r="B10" t="s">
+        <v>610</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>611</v>
+      </c>
+      <c r="B11" t="s">
+        <v>612</v>
+      </c>
+      <c r="C11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>613</v>
+      </c>
+      <c r="B12" t="s">
+        <v>614</v>
+      </c>
+      <c r="C12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>615</v>
+      </c>
+      <c r="B13" t="s">
+        <v>616</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>617</v>
+      </c>
+      <c r="B14" t="s">
+        <v>618</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>619</v>
+      </c>
+      <c r="B15" t="s">
+        <v>620</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>621</v>
+      </c>
+      <c r="B16" t="s">
+        <v>622</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>623</v>
+      </c>
+      <c r="B17" t="s">
+        <v>624</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>625</v>
+      </c>
+      <c r="B18" t="s">
+        <v>626</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>627</v>
+      </c>
+      <c r="B19" t="s">
+        <v>628</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>629</v>
+      </c>
+      <c r="B20" t="s">
+        <v>630</v>
+      </c>
+      <c r="C20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>631</v>
+      </c>
+      <c r="B21" t="s">
+        <v>632</v>
+      </c>
+      <c r="C21">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>633</v>
+      </c>
+      <c r="B22" t="s">
+        <v>634</v>
+      </c>
+      <c r="C22">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>635</v>
+      </c>
+      <c r="B23" t="s">
+        <v>636</v>
+      </c>
+      <c r="C23">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>637</v>
+      </c>
+      <c r="B24" t="s">
+        <v>638</v>
+      </c>
+      <c r="C24">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>639</v>
+      </c>
+      <c r="B25" t="s">
+        <v>640</v>
+      </c>
+      <c r="C25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>641</v>
+      </c>
+      <c r="B26" t="s">
+        <v>642</v>
+      </c>
+      <c r="C26">
         <v>85</v>
       </c>
-      <c r="B10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>643</v>
+      </c>
+      <c r="B27" t="s">
+        <v>644</v>
+      </c>
+      <c r="C27">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>645</v>
+      </c>
+      <c r="B28" t="s">
+        <v>646</v>
+      </c>
+      <c r="C28">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>647</v>
+      </c>
+      <c r="B29" t="s">
+        <v>648</v>
+      </c>
+      <c r="C29">
         <v>113</v>
       </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>649</v>
+      </c>
+      <c r="B30" t="s">
+        <v>650</v>
+      </c>
+      <c r="C30">
         <v>120</v>
       </c>
-      <c r="B15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>134</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>141</v>
-      </c>
-      <c r="B18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B19">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>155</v>
-      </c>
-      <c r="B20">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>162</v>
-      </c>
-      <c r="B21">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>169</v>
-      </c>
-      <c r="B22">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B23">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>183</v>
-      </c>
-      <c r="B24">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>190</v>
-      </c>
-      <c r="B25">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>197</v>
-      </c>
-      <c r="B26">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>204</v>
-      </c>
-      <c r="B27">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>211</v>
-      </c>
-      <c r="B28">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>218</v>
-      </c>
-      <c r="B29">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>225</v>
-      </c>
-      <c r="B30">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>229</v>
-      </c>
-      <c r="B31">
+        <v>651</v>
+      </c>
+      <c r="B31" t="s">
+        <v>652</v>
+      </c>
+      <c r="C31">
         <v>60</v>
       </c>
     </row>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -735,10 +735,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-22T13:07:42.787Z</t>
-  </si>
-  <si>
-    <t>2020-09-23T13:07:42.787Z</t>
+    <t>2020-09-22T14:07:46.003Z</t>
+  </si>
+  <si>
+    <t>2020-09-23T14:07:46.003Z</t>
   </si>
   <si>
     <t>home</t>
@@ -21841,10 +21841,10 @@
         <v>467</v>
       </c>
       <c r="C2">
+        <v>1074</v>
+      </c>
+      <c r="D2">
         <v>517</v>
-      </c>
-      <c r="D2">
-        <v>1074</v>
       </c>
       <c r="E2">
         <v>2740</v>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -735,10 +735,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-22T14:07:46.003Z</t>
-  </si>
-  <si>
-    <t>2020-09-23T14:07:46.003Z</t>
+    <t>2020-09-22T15:07:48.477Z</t>
+  </si>
+  <si>
+    <t>2020-09-23T15:07:48.477Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -27,14 +27,15 @@
     <sheet name="hospitalStatus" sheetId="18" r:id="rId18"/>
     <sheet name="doublingRate" sheetId="19" r:id="rId19"/>
     <sheet name="calculatedVerified" sheetId="20" r:id="rId20"/>
-    <sheet name="weeklyDead_computed" sheetId="21" r:id="rId21"/>
+    <sheet name="deadWeekly_computed" sheetId="21" r:id="rId21"/>
+    <sheet name="deadDelta_computed" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2853" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3061" uniqueCount="653">
   <si>
     <t>lastUpdate</t>
   </si>
@@ -735,10 +736,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-22T15:07:48.477Z</t>
-  </si>
-  <si>
-    <t>2020-09-23T15:07:48.477Z</t>
+    <t>2020-09-22T15:22:49.563Z</t>
+  </si>
+  <si>
+    <t>2020-09-23T15:22:49.563Z</t>
   </si>
   <si>
     <t>home</t>
@@ -33118,6 +33119,1679 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B207"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>87</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>93</v>
+      </c>
+      <c r="B71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>95</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>96</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>97</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>98</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>99</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>101</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>102</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>103</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>104</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>105</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>106</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>108</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>109</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>110</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>111</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>112</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>113</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>114</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>115</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>116</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>117</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>118</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>119</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>120</v>
+      </c>
+      <c r="B98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>121</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>122</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>123</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>124</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>125</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>126</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>127</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>128</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>129</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>130</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>131</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>132</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>133</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>134</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>135</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>136</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>137</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>138</v>
+      </c>
+      <c r="B116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>139</v>
+      </c>
+      <c r="B117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>140</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>141</v>
+      </c>
+      <c r="B119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>142</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>143</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>144</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>145</v>
+      </c>
+      <c r="B123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>146</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>147</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>148</v>
+      </c>
+      <c r="B126">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>149</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>150</v>
+      </c>
+      <c r="B128">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>151</v>
+      </c>
+      <c r="B129">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>152</v>
+      </c>
+      <c r="B130">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>153</v>
+      </c>
+      <c r="B131">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>154</v>
+      </c>
+      <c r="B132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>155</v>
+      </c>
+      <c r="B133">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>156</v>
+      </c>
+      <c r="B134">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>157</v>
+      </c>
+      <c r="B135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>158</v>
+      </c>
+      <c r="B136">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>159</v>
+      </c>
+      <c r="B137">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>160</v>
+      </c>
+      <c r="B138">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>161</v>
+      </c>
+      <c r="B139">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>162</v>
+      </c>
+      <c r="B140">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>163</v>
+      </c>
+      <c r="B141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>164</v>
+      </c>
+      <c r="B142">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>165</v>
+      </c>
+      <c r="B143">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>166</v>
+      </c>
+      <c r="B144">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>167</v>
+      </c>
+      <c r="B145">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>168</v>
+      </c>
+      <c r="B146">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>169</v>
+      </c>
+      <c r="B147">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>170</v>
+      </c>
+      <c r="B148">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>171</v>
+      </c>
+      <c r="B149">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>172</v>
+      </c>
+      <c r="B150">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>173</v>
+      </c>
+      <c r="B151">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>174</v>
+      </c>
+      <c r="B152">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>175</v>
+      </c>
+      <c r="B153">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>176</v>
+      </c>
+      <c r="B154">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>177</v>
+      </c>
+      <c r="B155">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>178</v>
+      </c>
+      <c r="B156">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>179</v>
+      </c>
+      <c r="B157">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>180</v>
+      </c>
+      <c r="B158">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>181</v>
+      </c>
+      <c r="B159">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>182</v>
+      </c>
+      <c r="B160">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>183</v>
+      </c>
+      <c r="B161">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>184</v>
+      </c>
+      <c r="B162">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>185</v>
+      </c>
+      <c r="B163">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>186</v>
+      </c>
+      <c r="B164">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>187</v>
+      </c>
+      <c r="B165">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>188</v>
+      </c>
+      <c r="B166">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>189</v>
+      </c>
+      <c r="B167">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>190</v>
+      </c>
+      <c r="B168">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>191</v>
+      </c>
+      <c r="B169">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>192</v>
+      </c>
+      <c r="B170">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>193</v>
+      </c>
+      <c r="B171">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>194</v>
+      </c>
+      <c r="B172">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>195</v>
+      </c>
+      <c r="B173">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>196</v>
+      </c>
+      <c r="B174">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>197</v>
+      </c>
+      <c r="B175">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>198</v>
+      </c>
+      <c r="B176">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>199</v>
+      </c>
+      <c r="B177">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>200</v>
+      </c>
+      <c r="B178">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>201</v>
+      </c>
+      <c r="B179">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>202</v>
+      </c>
+      <c r="B180">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>203</v>
+      </c>
+      <c r="B181">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>204</v>
+      </c>
+      <c r="B182">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>205</v>
+      </c>
+      <c r="B183">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>206</v>
+      </c>
+      <c r="B184">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>207</v>
+      </c>
+      <c r="B185">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>208</v>
+      </c>
+      <c r="B186">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>209</v>
+      </c>
+      <c r="B187">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>210</v>
+      </c>
+      <c r="B188">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>211</v>
+      </c>
+      <c r="B189">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>212</v>
+      </c>
+      <c r="B190">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>213</v>
+      </c>
+      <c r="B191">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>214</v>
+      </c>
+      <c r="B192">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>215</v>
+      </c>
+      <c r="B193">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>216</v>
+      </c>
+      <c r="B194">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>217</v>
+      </c>
+      <c r="B195">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>218</v>
+      </c>
+      <c r="B196">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>219</v>
+      </c>
+      <c r="B197">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>220</v>
+      </c>
+      <c r="B198">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>221</v>
+      </c>
+      <c r="B199">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>222</v>
+      </c>
+      <c r="B200">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>223</v>
+      </c>
+      <c r="B201">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>224</v>
+      </c>
+      <c r="B202">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>225</v>
+      </c>
+      <c r="B203">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>226</v>
+      </c>
+      <c r="B204">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>227</v>
+      </c>
+      <c r="B205">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>228</v>
+      </c>
+      <c r="B206">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>229</v>
+      </c>
+      <c r="B207">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C226"/>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -736,10 +736,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-22T15:22:49.563Z</t>
-  </si>
-  <si>
-    <t>2020-09-23T15:22:49.563Z</t>
+    <t>2020-09-22T15:46:50.622Z</t>
+  </si>
+  <si>
+    <t>2020-09-23T15:46:50.622Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -736,10 +736,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-22T15:46:50.622Z</t>
-  </si>
-  <si>
-    <t>2020-09-23T15:46:50.622Z</t>
+    <t>2020-09-22T16:07:51.343Z</t>
+  </si>
+  <si>
+    <t>2020-09-23T16:07:51.343Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -732,10 +732,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-22T17:04:53.559Z</t>
-  </si>
-  <si>
-    <t>2020-09-23T17:04:53.559Z</t>
+    <t>2020-09-22T18:07:56.636Z</t>
+  </si>
+  <si>
+    <t>2020-09-23T18:07:56.636Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -732,10 +732,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-22T18:07:56.636Z</t>
-  </si>
-  <si>
-    <t>2020-09-23T18:07:56.636Z</t>
+    <t>2020-09-22T19:04:58.889Z</t>
+  </si>
+  <si>
+    <t>2020-09-23T19:04:58.889Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -732,10 +732,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-22T19:04:58.889Z</t>
-  </si>
-  <si>
-    <t>2020-09-23T19:04:58.889Z</t>
+    <t>2020-09-22T20:08:01.151Z</t>
+  </si>
+  <si>
+    <t>2020-09-23T20:08:01.151Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="667">
   <si>
     <t>lastUpdate</t>
   </si>
@@ -735,10 +735,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-23T07:41:40.007Z</t>
-  </si>
-  <si>
-    <t>2020-09-24T07:41:40.007Z</t>
+    <t>2020-09-23T08:05:40.321Z</t>
+  </si>
+  <si>
+    <t>2020-09-24T08:05:40.321Z</t>
   </si>
   <si>
     <t>home</t>
@@ -11440,7 +11440,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C208"/>
+  <dimension ref="A1:B208"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11448,2287 +11448,1665 @@
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>34</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>38</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>39</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>41</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>42</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>43</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>44</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>45</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>48</v>
       </c>
       <c r="B26">
         <v>5</v>
       </c>
-      <c r="C26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>49</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>50</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>51</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>52</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>53</v>
       </c>
       <c r="B31">
         <v>4</v>
       </c>
-      <c r="C31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>54</v>
       </c>
       <c r="B32">
         <v>8</v>
       </c>
-      <c r="C32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>55</v>
       </c>
       <c r="B33">
         <v>10</v>
       </c>
-      <c r="C33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>56</v>
       </c>
       <c r="B34">
         <v>5</v>
       </c>
-      <c r="C34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>57</v>
       </c>
       <c r="B35">
         <v>7</v>
       </c>
-      <c r="C35">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>58</v>
       </c>
       <c r="B36">
         <v>6</v>
       </c>
-      <c r="C36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>59</v>
       </c>
       <c r="B37">
         <v>7</v>
       </c>
-      <c r="C37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>60</v>
       </c>
       <c r="B38">
         <v>7</v>
       </c>
-      <c r="C38">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>61</v>
       </c>
       <c r="B39">
         <v>9</v>
       </c>
-      <c r="C39">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>62</v>
       </c>
       <c r="B40">
         <v>9</v>
       </c>
-      <c r="C40">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>63</v>
       </c>
       <c r="B41">
         <v>8</v>
       </c>
-      <c r="C41">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>64</v>
       </c>
       <c r="B42">
         <v>6</v>
       </c>
-      <c r="C42">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>65</v>
       </c>
       <c r="B43">
         <v>7</v>
       </c>
-      <c r="C43">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>66</v>
       </c>
       <c r="B44">
         <v>8</v>
       </c>
-      <c r="C44">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>67</v>
       </c>
       <c r="B45">
         <v>8</v>
       </c>
-      <c r="C45">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>68</v>
       </c>
       <c r="B46">
         <v>13</v>
       </c>
-      <c r="C46">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>69</v>
       </c>
       <c r="B47">
         <v>7</v>
       </c>
-      <c r="C47">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>70</v>
       </c>
       <c r="B48">
         <v>9</v>
       </c>
-      <c r="C48">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>71</v>
       </c>
       <c r="B49">
         <v>11</v>
       </c>
-      <c r="C49">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>72</v>
       </c>
       <c r="B50">
         <v>8</v>
       </c>
-      <c r="C50">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>73</v>
       </c>
       <c r="B51">
         <v>6</v>
       </c>
-      <c r="C51">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>74</v>
       </c>
       <c r="B52">
         <v>9</v>
       </c>
-      <c r="C52">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>75</v>
       </c>
       <c r="B53">
         <v>3</v>
       </c>
-      <c r="C53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>76</v>
       </c>
       <c r="B54">
         <v>4</v>
       </c>
-      <c r="C54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>77</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
-      <c r="C55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>78</v>
       </c>
       <c r="B56">
         <v>3</v>
       </c>
-      <c r="C56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>79</v>
       </c>
       <c r="B57">
         <v>2</v>
       </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>80</v>
       </c>
       <c r="B58">
         <v>4</v>
       </c>
-      <c r="C58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>81</v>
       </c>
       <c r="B59">
         <v>5</v>
       </c>
-      <c r="C59">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>82</v>
       </c>
       <c r="B60">
         <v>6</v>
       </c>
-      <c r="C60">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>83</v>
       </c>
       <c r="B61">
         <v>6</v>
       </c>
-      <c r="C61">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>84</v>
       </c>
       <c r="B62">
         <v>4</v>
       </c>
-      <c r="C62">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>85</v>
       </c>
       <c r="B63">
         <v>3</v>
       </c>
-      <c r="C63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>86</v>
       </c>
       <c r="B64">
         <v>3</v>
       </c>
-      <c r="C64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>87</v>
       </c>
       <c r="B65">
         <v>3</v>
       </c>
-      <c r="C65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>88</v>
       </c>
       <c r="B66">
         <v>2</v>
       </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>89</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>90</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>91</v>
       </c>
       <c r="B69">
         <v>6</v>
       </c>
-      <c r="C69">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>92</v>
       </c>
       <c r="B70">
         <v>2</v>
       </c>
-      <c r="C70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>93</v>
       </c>
       <c r="B71">
         <v>5</v>
       </c>
-      <c r="C71">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>94</v>
       </c>
       <c r="B72">
         <v>5</v>
       </c>
-      <c r="C72">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>95</v>
       </c>
       <c r="B73">
         <v>3</v>
       </c>
-      <c r="C73">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>96</v>
       </c>
       <c r="B74">
         <v>3</v>
       </c>
-      <c r="C74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>97</v>
       </c>
       <c r="B75">
         <v>2</v>
       </c>
-      <c r="C75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>98</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>99</v>
       </c>
       <c r="B77">
         <v>3</v>
       </c>
-      <c r="C77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>100</v>
       </c>
       <c r="B78">
         <v>4</v>
       </c>
-      <c r="C78">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>101</v>
       </c>
       <c r="B79">
         <v>3</v>
       </c>
-      <c r="C79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>102</v>
       </c>
       <c r="B80">
         <v>2</v>
       </c>
-      <c r="C80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>103</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>104</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>105</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>106</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>107</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>108</v>
       </c>
       <c r="B86">
         <v>2</v>
       </c>
-      <c r="C86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>109</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>110</v>
       </c>
       <c r="B88">
         <v>2</v>
       </c>
-      <c r="C88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>111</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>112</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>113</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>114</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>115</v>
       </c>
       <c r="B93">
         <v>3</v>
       </c>
-      <c r="C93">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>116</v>
       </c>
       <c r="B94">
         <v>2</v>
       </c>
-      <c r="C94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>117</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>118</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>119</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>120</v>
       </c>
       <c r="B98">
         <v>4</v>
       </c>
-      <c r="C98">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>121</v>
       </c>
       <c r="B99">
         <v>2</v>
       </c>
-      <c r="C99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>122</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>123</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>124</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>125</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>126</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>127</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>128</v>
       </c>
       <c r="B106">
         <v>2</v>
       </c>
-      <c r="C106">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>129</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>130</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>131</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>132</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>133</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
-      <c r="C111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>134</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
-      <c r="C112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>135</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>136</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>137</v>
       </c>
       <c r="B115">
         <v>2</v>
       </c>
-      <c r="C115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>138</v>
       </c>
       <c r="B116">
         <v>3</v>
       </c>
-      <c r="C116">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+    </row>
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>139</v>
       </c>
       <c r="B117">
         <v>4</v>
       </c>
-      <c r="C117">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+    </row>
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>140</v>
       </c>
       <c r="B118">
         <v>3</v>
       </c>
-      <c r="C118">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+    </row>
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>141</v>
       </c>
       <c r="B119">
         <v>3</v>
       </c>
-      <c r="C119">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>142</v>
       </c>
       <c r="B120">
         <v>2</v>
       </c>
-      <c r="C120">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+    </row>
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>143</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+    </row>
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>144</v>
       </c>
       <c r="B122">
         <v>1</v>
       </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+    </row>
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>145</v>
       </c>
       <c r="B123">
         <v>3</v>
       </c>
-      <c r="C123">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+    </row>
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>146</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+    </row>
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>147</v>
       </c>
       <c r="B125">
         <v>2</v>
       </c>
-      <c r="C125">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+    </row>
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>148</v>
       </c>
       <c r="B126">
         <v>6</v>
       </c>
-      <c r="C126">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+    </row>
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>149</v>
       </c>
       <c r="B127">
         <v>2</v>
       </c>
-      <c r="C127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+    </row>
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>150</v>
       </c>
       <c r="B128">
         <v>8</v>
       </c>
-      <c r="C128">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+    </row>
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>151</v>
       </c>
       <c r="B129">
         <v>5</v>
       </c>
-      <c r="C129">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+    </row>
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>152</v>
       </c>
       <c r="B130">
         <v>5</v>
       </c>
-      <c r="C130">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+    </row>
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>153</v>
       </c>
       <c r="B131">
         <v>5</v>
       </c>
-      <c r="C131">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>154</v>
       </c>
       <c r="B132">
         <v>4</v>
       </c>
-      <c r="C132">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+    </row>
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>155</v>
       </c>
       <c r="B133">
         <v>5</v>
       </c>
-      <c r="C133">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+    </row>
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>156</v>
       </c>
       <c r="B134">
         <v>7</v>
       </c>
-      <c r="C134">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+    </row>
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>157</v>
       </c>
       <c r="B135">
         <v>4</v>
       </c>
-      <c r="C135">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+    </row>
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>158</v>
       </c>
       <c r="B136">
         <v>7</v>
       </c>
-      <c r="C136">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+    </row>
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>159</v>
       </c>
       <c r="B137">
         <v>6</v>
       </c>
-      <c r="C137">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+    </row>
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>160</v>
       </c>
       <c r="B138">
         <v>9</v>
       </c>
-      <c r="C138">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+    </row>
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>161</v>
       </c>
       <c r="B139">
         <v>12</v>
       </c>
-      <c r="C139">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+    </row>
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>162</v>
       </c>
       <c r="B140">
         <v>8</v>
       </c>
-      <c r="C140">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+    </row>
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>163</v>
       </c>
       <c r="B141">
         <v>10</v>
       </c>
-      <c r="C141">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+    </row>
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
         <v>164</v>
       </c>
       <c r="B142">
         <v>12</v>
       </c>
-      <c r="C142">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+    </row>
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
         <v>165</v>
       </c>
       <c r="B143">
         <v>9</v>
       </c>
-      <c r="C143">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+    </row>
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
         <v>166</v>
       </c>
       <c r="B144">
         <v>5</v>
       </c>
-      <c r="C144">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+    </row>
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>167</v>
       </c>
       <c r="B145">
         <v>16</v>
       </c>
-      <c r="C145">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+    </row>
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>168</v>
       </c>
       <c r="B146">
         <v>8</v>
       </c>
-      <c r="C146">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+    </row>
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>169</v>
       </c>
       <c r="B147">
         <v>7</v>
       </c>
-      <c r="C147">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+    </row>
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
         <v>170</v>
       </c>
       <c r="B148">
         <v>10</v>
       </c>
-      <c r="C148">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+    </row>
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
         <v>171</v>
       </c>
       <c r="B149">
         <v>7</v>
       </c>
-      <c r="C149">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+    </row>
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
         <v>172</v>
       </c>
       <c r="B150">
         <v>8</v>
       </c>
-      <c r="C150">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+    </row>
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
         <v>173</v>
       </c>
       <c r="B151">
         <v>15</v>
       </c>
-      <c r="C151">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+    </row>
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>174</v>
       </c>
       <c r="B152">
         <v>14</v>
       </c>
-      <c r="C152">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+    </row>
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
         <v>175</v>
       </c>
       <c r="B153">
         <v>15</v>
       </c>
-      <c r="C153">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+    </row>
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>176</v>
       </c>
       <c r="B154">
         <v>14</v>
       </c>
-      <c r="C154">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+    </row>
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
         <v>177</v>
       </c>
       <c r="B155">
         <v>11</v>
       </c>
-      <c r="C155">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
+    </row>
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>178</v>
       </c>
       <c r="B156">
         <v>15</v>
       </c>
-      <c r="C156">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+    </row>
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
         <v>179</v>
       </c>
       <c r="B157">
         <v>11</v>
       </c>
-      <c r="C157">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+    </row>
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
         <v>180</v>
       </c>
       <c r="B158">
         <v>10</v>
       </c>
-      <c r="C158">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+    </row>
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
         <v>181</v>
       </c>
       <c r="B159">
         <v>9</v>
       </c>
-      <c r="C159">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
+    </row>
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
         <v>182</v>
       </c>
       <c r="B160">
         <v>11</v>
       </c>
-      <c r="C160">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+    </row>
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
         <v>183</v>
       </c>
       <c r="B161">
         <v>14</v>
       </c>
-      <c r="C161">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+    </row>
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
         <v>184</v>
       </c>
       <c r="B162">
         <v>7</v>
       </c>
-      <c r="C162">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
+    </row>
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
         <v>185</v>
       </c>
       <c r="B163">
         <v>15</v>
       </c>
-      <c r="C163">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+    </row>
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
         <v>186</v>
       </c>
       <c r="B164">
         <v>11</v>
       </c>
-      <c r="C164">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+    </row>
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
         <v>187</v>
       </c>
       <c r="B165">
         <v>14</v>
       </c>
-      <c r="C165">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
+    </row>
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
         <v>188</v>
       </c>
       <c r="B166">
         <v>17</v>
       </c>
-      <c r="C166">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+    </row>
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
         <v>189</v>
       </c>
       <c r="B167">
         <v>12</v>
       </c>
-      <c r="C167">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+    </row>
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
         <v>190</v>
       </c>
       <c r="B168">
         <v>10</v>
       </c>
-      <c r="C168">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+    </row>
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
         <v>191</v>
       </c>
       <c r="B169">
         <v>17</v>
       </c>
-      <c r="C169">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+    </row>
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
         <v>192</v>
       </c>
       <c r="B170">
         <v>6</v>
       </c>
-      <c r="C170">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+    </row>
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
         <v>193</v>
       </c>
       <c r="B171">
         <v>12</v>
       </c>
-      <c r="C171">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
+    </row>
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
         <v>194</v>
       </c>
       <c r="B172">
         <v>13</v>
       </c>
-      <c r="C172">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
+    </row>
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
         <v>195</v>
       </c>
       <c r="B173">
         <v>13</v>
       </c>
-      <c r="C173">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
+    </row>
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
         <v>196</v>
       </c>
       <c r="B174">
         <v>12</v>
       </c>
-      <c r="C174">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
+    </row>
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
         <v>197</v>
       </c>
       <c r="B175">
         <v>12</v>
       </c>
-      <c r="C175">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
+    </row>
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
         <v>198</v>
       </c>
       <c r="B176">
         <v>13</v>
       </c>
-      <c r="C176">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
+    </row>
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
         <v>199</v>
       </c>
       <c r="B177">
         <v>15</v>
       </c>
-      <c r="C177">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
+    </row>
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
         <v>200</v>
       </c>
       <c r="B178">
         <v>18</v>
       </c>
-      <c r="C178">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
+    </row>
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
         <v>201</v>
       </c>
       <c r="B179">
         <v>11</v>
       </c>
-      <c r="C179">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
+    </row>
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
         <v>202</v>
       </c>
       <c r="B180">
         <v>12</v>
       </c>
-      <c r="C180">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
+    </row>
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
         <v>203</v>
       </c>
       <c r="B181">
         <v>11</v>
       </c>
-      <c r="C181">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
+    </row>
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
         <v>204</v>
       </c>
       <c r="B182">
         <v>5</v>
       </c>
-      <c r="C182">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
+    </row>
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
         <v>205</v>
       </c>
       <c r="B183">
         <v>15</v>
       </c>
-      <c r="C183">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
+    </row>
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
         <v>206</v>
       </c>
       <c r="B184">
         <v>22</v>
       </c>
-      <c r="C184">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
+    </row>
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
         <v>207</v>
       </c>
       <c r="B185">
         <v>16</v>
       </c>
-      <c r="C185">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
+    </row>
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
         <v>208</v>
       </c>
       <c r="B186">
         <v>14</v>
       </c>
-      <c r="C186">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
+    </row>
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
         <v>209</v>
       </c>
       <c r="B187">
         <v>15</v>
       </c>
-      <c r="C187">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
+    </row>
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
         <v>210</v>
       </c>
       <c r="B188">
         <v>12</v>
       </c>
-      <c r="C188">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
+    </row>
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
         <v>211</v>
       </c>
       <c r="B189">
         <v>15</v>
       </c>
-      <c r="C189">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
+    </row>
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
         <v>212</v>
       </c>
       <c r="B190">
         <v>13</v>
       </c>
-      <c r="C190">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
+    </row>
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
         <v>213</v>
       </c>
       <c r="B191">
         <v>16</v>
       </c>
-      <c r="C191">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
+    </row>
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
         <v>214</v>
       </c>
       <c r="B192">
         <v>21</v>
       </c>
-      <c r="C192">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
+    </row>
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
         <v>215</v>
       </c>
       <c r="B193">
         <v>16</v>
       </c>
-      <c r="C193">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
+    </row>
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
         <v>216</v>
       </c>
       <c r="B194">
         <v>11</v>
       </c>
-      <c r="C194">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
+    </row>
+    <row r="195" spans="1:2">
       <c r="A195" t="s">
         <v>217</v>
       </c>
       <c r="B195">
         <v>22</v>
       </c>
-      <c r="C195">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
+    </row>
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
         <v>218</v>
       </c>
       <c r="B196">
         <v>15</v>
       </c>
-      <c r="C196">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
+    </row>
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
         <v>219</v>
       </c>
       <c r="B197">
         <v>18</v>
       </c>
-      <c r="C197">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
+    </row>
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
         <v>220</v>
       </c>
       <c r="B198">
         <v>15</v>
       </c>
-      <c r="C198">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
+    </row>
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
         <v>221</v>
       </c>
       <c r="B199">
         <v>13</v>
       </c>
-      <c r="C199">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
+    </row>
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
         <v>222</v>
       </c>
       <c r="B200">
         <v>24</v>
       </c>
-      <c r="C200">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
+    </row>
+    <row r="201" spans="1:2">
       <c r="A201" t="s">
         <v>223</v>
       </c>
       <c r="B201">
         <v>13</v>
       </c>
-      <c r="C201">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
+    </row>
+    <row r="202" spans="1:2">
       <c r="A202" t="s">
         <v>224</v>
       </c>
       <c r="B202">
         <v>19</v>
       </c>
-      <c r="C202">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
+    </row>
+    <row r="203" spans="1:2">
       <c r="A203" t="s">
         <v>225</v>
       </c>
       <c r="B203">
         <v>22</v>
       </c>
-      <c r="C203">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
+    </row>
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
         <v>226</v>
       </c>
       <c r="B204">
         <v>12</v>
       </c>
-      <c r="C204">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
+    </row>
+    <row r="205" spans="1:2">
       <c r="A205" t="s">
         <v>227</v>
       </c>
       <c r="B205">
         <v>26</v>
       </c>
-      <c r="C205">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
+    </row>
+    <row r="206" spans="1:2">
       <c r="A206" t="s">
         <v>228</v>
       </c>
       <c r="B206">
         <v>25</v>
       </c>
-      <c r="C206">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
+    </row>
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
         <v>229</v>
       </c>
       <c r="B207">
         <v>12</v>
       </c>
-      <c r="C207">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
+    </row>
+    <row r="208" spans="1:2">
       <c r="A208" t="s">
         <v>230</v>
       </c>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -735,10 +735,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-23T08:05:40.321Z</t>
-  </si>
-  <si>
-    <t>2020-09-24T08:05:40.321Z</t>
+    <t>2020-09-23T09:05:42.251Z</t>
+  </si>
+  <si>
+    <t>2020-09-24T09:05:42.251Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -735,10 +735,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-23T09:05:42.251Z</t>
-  </si>
-  <si>
-    <t>2020-09-24T09:05:42.251Z</t>
+    <t>2020-09-23T10:05:45.282Z</t>
+  </si>
+  <si>
+    <t>2020-09-24T10:05:45.282Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -735,10 +735,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-23T10:05:45.282Z</t>
-  </si>
-  <si>
-    <t>2020-09-24T10:05:45.282Z</t>
+    <t>2020-09-23T11:05:47.232Z</t>
+  </si>
+  <si>
+    <t>2020-09-24T11:05:47.232Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -735,10 +735,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-23T11:05:47.232Z</t>
-  </si>
-  <si>
-    <t>2020-09-24T11:05:47.232Z</t>
+    <t>2020-09-23T12:08:48.989Z</t>
+  </si>
+  <si>
+    <t>2020-09-24T12:08:48.989Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -735,10 +735,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-23T12:08:48.989Z</t>
-  </si>
-  <si>
-    <t>2020-09-24T12:08:48.989Z</t>
+    <t>2020-09-23T13:05:50.411Z</t>
+  </si>
+  <si>
+    <t>2020-09-24T13:05:50.411Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -735,10 +735,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-23T13:05:50.411Z</t>
-  </si>
-  <si>
-    <t>2020-09-24T13:05:50.411Z</t>
+    <t>2020-09-23T14:05:52.616Z</t>
+  </si>
+  <si>
+    <t>2020-09-24T14:05:52.616Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -735,10 +735,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-23T14:05:52.616Z</t>
-  </si>
-  <si>
-    <t>2020-09-24T14:05:52.616Z</t>
+    <t>2020-09-23T15:05:54.941Z</t>
+  </si>
+  <si>
+    <t>2020-09-24T15:05:54.941Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -735,10 +735,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-23T15:05:54.941Z</t>
-  </si>
-  <si>
-    <t>2020-09-24T15:05:54.941Z</t>
+    <t>2020-09-23T16:08:57.589Z</t>
+  </si>
+  <si>
+    <t>2020-09-24T16:08:57.589Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2141" uniqueCount="663">
   <si>
     <t>lastUpdate</t>
   </si>
@@ -735,10 +735,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-23T17:06:00.142Z</t>
-  </si>
-  <si>
-    <t>2020-09-24T17:06:00.143Z</t>
+    <t>2020-09-23T18:06:02.310Z</t>
+  </si>
+  <si>
+    <t>2020-09-24T18:06:02.310Z</t>
   </si>
   <si>
     <t>home</t>
@@ -11390,7 +11390,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C208"/>
+  <dimension ref="A1:B208"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11398,2295 +11398,1670 @@
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>34</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>38</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>39</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>41</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>42</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>43</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>44</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>45</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>48</v>
       </c>
       <c r="B26">
         <v>5</v>
       </c>
-      <c r="C26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>49</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>50</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>51</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>52</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>53</v>
       </c>
       <c r="B31">
         <v>4</v>
       </c>
-      <c r="C31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>54</v>
       </c>
       <c r="B32">
         <v>8</v>
       </c>
-      <c r="C32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>55</v>
       </c>
       <c r="B33">
         <v>10</v>
       </c>
-      <c r="C33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>56</v>
       </c>
       <c r="B34">
         <v>5</v>
       </c>
-      <c r="C34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>57</v>
       </c>
       <c r="B35">
         <v>7</v>
       </c>
-      <c r="C35">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>58</v>
       </c>
       <c r="B36">
         <v>6</v>
       </c>
-      <c r="C36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>59</v>
       </c>
       <c r="B37">
         <v>7</v>
       </c>
-      <c r="C37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>60</v>
       </c>
       <c r="B38">
         <v>7</v>
       </c>
-      <c r="C38">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>61</v>
       </c>
       <c r="B39">
         <v>9</v>
       </c>
-      <c r="C39">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>62</v>
       </c>
       <c r="B40">
         <v>9</v>
       </c>
-      <c r="C40">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>63</v>
       </c>
       <c r="B41">
         <v>8</v>
       </c>
-      <c r="C41">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>64</v>
       </c>
       <c r="B42">
         <v>6</v>
       </c>
-      <c r="C42">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>65</v>
       </c>
       <c r="B43">
         <v>7</v>
       </c>
-      <c r="C43">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>66</v>
       </c>
       <c r="B44">
         <v>8</v>
       </c>
-      <c r="C44">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>67</v>
       </c>
       <c r="B45">
         <v>8</v>
       </c>
-      <c r="C45">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>68</v>
       </c>
       <c r="B46">
         <v>13</v>
       </c>
-      <c r="C46">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>69</v>
       </c>
       <c r="B47">
         <v>7</v>
       </c>
-      <c r="C47">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>70</v>
       </c>
       <c r="B48">
         <v>9</v>
       </c>
-      <c r="C48">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>71</v>
       </c>
       <c r="B49">
         <v>11</v>
       </c>
-      <c r="C49">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>72</v>
       </c>
       <c r="B50">
         <v>8</v>
       </c>
-      <c r="C50">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>73</v>
       </c>
       <c r="B51">
         <v>6</v>
       </c>
-      <c r="C51">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>74</v>
       </c>
       <c r="B52">
         <v>9</v>
       </c>
-      <c r="C52">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>75</v>
       </c>
       <c r="B53">
         <v>3</v>
       </c>
-      <c r="C53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>76</v>
       </c>
       <c r="B54">
         <v>4</v>
       </c>
-      <c r="C54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>77</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
-      <c r="C55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>78</v>
       </c>
       <c r="B56">
         <v>3</v>
       </c>
-      <c r="C56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>79</v>
       </c>
       <c r="B57">
         <v>2</v>
       </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>80</v>
       </c>
       <c r="B58">
         <v>4</v>
       </c>
-      <c r="C58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>81</v>
       </c>
       <c r="B59">
         <v>5</v>
       </c>
-      <c r="C59">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>82</v>
       </c>
       <c r="B60">
         <v>6</v>
       </c>
-      <c r="C60">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>83</v>
       </c>
       <c r="B61">
         <v>6</v>
       </c>
-      <c r="C61">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>84</v>
       </c>
       <c r="B62">
         <v>4</v>
       </c>
-      <c r="C62">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>85</v>
       </c>
       <c r="B63">
         <v>3</v>
       </c>
-      <c r="C63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>86</v>
       </c>
       <c r="B64">
         <v>3</v>
       </c>
-      <c r="C64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>87</v>
       </c>
       <c r="B65">
         <v>3</v>
       </c>
-      <c r="C65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>88</v>
       </c>
       <c r="B66">
         <v>2</v>
       </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>89</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>90</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>91</v>
       </c>
       <c r="B69">
         <v>6</v>
       </c>
-      <c r="C69">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>92</v>
       </c>
       <c r="B70">
         <v>2</v>
       </c>
-      <c r="C70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>93</v>
       </c>
       <c r="B71">
         <v>5</v>
       </c>
-      <c r="C71">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>94</v>
       </c>
       <c r="B72">
         <v>5</v>
       </c>
-      <c r="C72">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>95</v>
       </c>
       <c r="B73">
         <v>3</v>
       </c>
-      <c r="C73">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>96</v>
       </c>
       <c r="B74">
         <v>3</v>
       </c>
-      <c r="C74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>97</v>
       </c>
       <c r="B75">
         <v>2</v>
       </c>
-      <c r="C75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>98</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>99</v>
       </c>
       <c r="B77">
         <v>3</v>
       </c>
-      <c r="C77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>100</v>
       </c>
       <c r="B78">
         <v>4</v>
       </c>
-      <c r="C78">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>101</v>
       </c>
       <c r="B79">
         <v>3</v>
       </c>
-      <c r="C79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>102</v>
       </c>
       <c r="B80">
         <v>2</v>
       </c>
-      <c r="C80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>103</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>104</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>105</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>106</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>107</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>108</v>
       </c>
       <c r="B86">
         <v>2</v>
       </c>
-      <c r="C86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>109</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>110</v>
       </c>
       <c r="B88">
         <v>2</v>
       </c>
-      <c r="C88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>111</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>112</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>113</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>114</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>115</v>
       </c>
       <c r="B93">
         <v>3</v>
       </c>
-      <c r="C93">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>116</v>
       </c>
       <c r="B94">
         <v>2</v>
       </c>
-      <c r="C94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>117</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>118</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>119</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>120</v>
       </c>
       <c r="B98">
         <v>4</v>
       </c>
-      <c r="C98">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>121</v>
       </c>
       <c r="B99">
         <v>2</v>
       </c>
-      <c r="C99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>122</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>123</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>124</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>125</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>126</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>127</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>128</v>
       </c>
       <c r="B106">
         <v>2</v>
       </c>
-      <c r="C106">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>129</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>130</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>131</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>132</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>133</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
-      <c r="C111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>134</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
-      <c r="C112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>135</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>136</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>137</v>
       </c>
       <c r="B115">
         <v>2</v>
       </c>
-      <c r="C115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>138</v>
       </c>
       <c r="B116">
         <v>3</v>
       </c>
-      <c r="C116">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+    </row>
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>139</v>
       </c>
       <c r="B117">
         <v>4</v>
       </c>
-      <c r="C117">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+    </row>
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>140</v>
       </c>
       <c r="B118">
         <v>3</v>
       </c>
-      <c r="C118">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+    </row>
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>141</v>
       </c>
       <c r="B119">
         <v>3</v>
       </c>
-      <c r="C119">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>142</v>
       </c>
       <c r="B120">
         <v>2</v>
       </c>
-      <c r="C120">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+    </row>
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>143</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+    </row>
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>144</v>
       </c>
       <c r="B122">
         <v>1</v>
       </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+    </row>
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>145</v>
       </c>
       <c r="B123">
         <v>3</v>
       </c>
-      <c r="C123">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+    </row>
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>146</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+    </row>
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>147</v>
       </c>
       <c r="B125">
         <v>2</v>
       </c>
-      <c r="C125">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+    </row>
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>148</v>
       </c>
       <c r="B126">
         <v>6</v>
       </c>
-      <c r="C126">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+    </row>
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>149</v>
       </c>
       <c r="B127">
         <v>2</v>
       </c>
-      <c r="C127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+    </row>
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>150</v>
       </c>
       <c r="B128">
         <v>8</v>
       </c>
-      <c r="C128">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+    </row>
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>151</v>
       </c>
       <c r="B129">
         <v>5</v>
       </c>
-      <c r="C129">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+    </row>
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>152</v>
       </c>
       <c r="B130">
         <v>5</v>
       </c>
-      <c r="C130">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+    </row>
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>153</v>
       </c>
       <c r="B131">
         <v>5</v>
       </c>
-      <c r="C131">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>154</v>
       </c>
       <c r="B132">
         <v>4</v>
       </c>
-      <c r="C132">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+    </row>
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>155</v>
       </c>
       <c r="B133">
         <v>5</v>
       </c>
-      <c r="C133">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+    </row>
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>156</v>
       </c>
       <c r="B134">
         <v>7</v>
       </c>
-      <c r="C134">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+    </row>
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>157</v>
       </c>
       <c r="B135">
         <v>4</v>
       </c>
-      <c r="C135">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+    </row>
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>158</v>
       </c>
       <c r="B136">
         <v>7</v>
       </c>
-      <c r="C136">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+    </row>
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>159</v>
       </c>
       <c r="B137">
         <v>6</v>
       </c>
-      <c r="C137">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+    </row>
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>160</v>
       </c>
       <c r="B138">
         <v>9</v>
       </c>
-      <c r="C138">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+    </row>
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>161</v>
       </c>
       <c r="B139">
         <v>12</v>
       </c>
-      <c r="C139">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+    </row>
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>162</v>
       </c>
       <c r="B140">
         <v>8</v>
       </c>
-      <c r="C140">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+    </row>
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>163</v>
       </c>
       <c r="B141">
         <v>10</v>
       </c>
-      <c r="C141">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+    </row>
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
         <v>164</v>
       </c>
       <c r="B142">
         <v>12</v>
       </c>
-      <c r="C142">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+    </row>
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
         <v>165</v>
       </c>
       <c r="B143">
         <v>9</v>
       </c>
-      <c r="C143">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+    </row>
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
         <v>166</v>
       </c>
       <c r="B144">
         <v>5</v>
       </c>
-      <c r="C144">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+    </row>
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>167</v>
       </c>
       <c r="B145">
         <v>16</v>
       </c>
-      <c r="C145">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+    </row>
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>168</v>
       </c>
       <c r="B146">
         <v>8</v>
       </c>
-      <c r="C146">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+    </row>
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>169</v>
       </c>
       <c r="B147">
         <v>7</v>
       </c>
-      <c r="C147">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+    </row>
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
         <v>170</v>
       </c>
       <c r="B148">
         <v>10</v>
       </c>
-      <c r="C148">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+    </row>
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
         <v>171</v>
       </c>
       <c r="B149">
         <v>7</v>
       </c>
-      <c r="C149">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+    </row>
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
         <v>172</v>
       </c>
       <c r="B150">
         <v>8</v>
       </c>
-      <c r="C150">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+    </row>
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
         <v>173</v>
       </c>
       <c r="B151">
         <v>15</v>
       </c>
-      <c r="C151">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+    </row>
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>174</v>
       </c>
       <c r="B152">
         <v>14</v>
       </c>
-      <c r="C152">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+    </row>
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
         <v>175</v>
       </c>
       <c r="B153">
         <v>15</v>
       </c>
-      <c r="C153">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+    </row>
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>176</v>
       </c>
       <c r="B154">
         <v>14</v>
       </c>
-      <c r="C154">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+    </row>
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
         <v>177</v>
       </c>
       <c r="B155">
         <v>11</v>
       </c>
-      <c r="C155">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
+    </row>
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>178</v>
       </c>
       <c r="B156">
         <v>15</v>
       </c>
-      <c r="C156">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+    </row>
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
         <v>179</v>
       </c>
       <c r="B157">
         <v>11</v>
       </c>
-      <c r="C157">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+    </row>
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
         <v>180</v>
       </c>
       <c r="B158">
         <v>10</v>
       </c>
-      <c r="C158">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+    </row>
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
         <v>181</v>
       </c>
       <c r="B159">
         <v>9</v>
       </c>
-      <c r="C159">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
+    </row>
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
         <v>182</v>
       </c>
       <c r="B160">
         <v>11</v>
       </c>
-      <c r="C160">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+    </row>
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
         <v>183</v>
       </c>
       <c r="B161">
         <v>14</v>
       </c>
-      <c r="C161">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+    </row>
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
         <v>184</v>
       </c>
       <c r="B162">
         <v>7</v>
       </c>
-      <c r="C162">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
+    </row>
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
         <v>185</v>
       </c>
       <c r="B163">
         <v>15</v>
       </c>
-      <c r="C163">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+    </row>
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
         <v>186</v>
       </c>
       <c r="B164">
         <v>11</v>
       </c>
-      <c r="C164">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+    </row>
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
         <v>187</v>
       </c>
       <c r="B165">
         <v>14</v>
       </c>
-      <c r="C165">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
+    </row>
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
         <v>188</v>
       </c>
       <c r="B166">
         <v>17</v>
       </c>
-      <c r="C166">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+    </row>
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
         <v>189</v>
       </c>
       <c r="B167">
         <v>12</v>
       </c>
-      <c r="C167">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+    </row>
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
         <v>190</v>
       </c>
       <c r="B168">
         <v>10</v>
       </c>
-      <c r="C168">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+    </row>
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
         <v>191</v>
       </c>
       <c r="B169">
         <v>17</v>
       </c>
-      <c r="C169">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+    </row>
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
         <v>192</v>
       </c>
       <c r="B170">
         <v>6</v>
       </c>
-      <c r="C170">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+    </row>
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
         <v>193</v>
       </c>
       <c r="B171">
         <v>12</v>
       </c>
-      <c r="C171">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
+    </row>
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
         <v>194</v>
       </c>
       <c r="B172">
         <v>13</v>
       </c>
-      <c r="C172">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
+    </row>
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
         <v>195</v>
       </c>
       <c r="B173">
         <v>13</v>
       </c>
-      <c r="C173">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
+    </row>
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
         <v>196</v>
       </c>
       <c r="B174">
         <v>12</v>
       </c>
-      <c r="C174">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
+    </row>
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
         <v>197</v>
       </c>
       <c r="B175">
         <v>12</v>
       </c>
-      <c r="C175">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
+    </row>
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
         <v>198</v>
       </c>
       <c r="B176">
         <v>13</v>
       </c>
-      <c r="C176">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
+    </row>
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
         <v>199</v>
       </c>
       <c r="B177">
         <v>15</v>
       </c>
-      <c r="C177">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
+    </row>
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
         <v>200</v>
       </c>
       <c r="B178">
         <v>18</v>
       </c>
-      <c r="C178">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
+    </row>
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
         <v>201</v>
       </c>
       <c r="B179">
         <v>11</v>
       </c>
-      <c r="C179">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
+    </row>
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
         <v>202</v>
       </c>
       <c r="B180">
         <v>12</v>
       </c>
-      <c r="C180">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
+    </row>
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
         <v>203</v>
       </c>
       <c r="B181">
         <v>11</v>
       </c>
-      <c r="C181">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
+    </row>
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
         <v>204</v>
       </c>
       <c r="B182">
         <v>5</v>
       </c>
-      <c r="C182">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
+    </row>
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
         <v>205</v>
       </c>
       <c r="B183">
         <v>15</v>
       </c>
-      <c r="C183">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
+    </row>
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
         <v>206</v>
       </c>
       <c r="B184">
         <v>22</v>
       </c>
-      <c r="C184">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
+    </row>
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
         <v>207</v>
       </c>
       <c r="B185">
         <v>16</v>
       </c>
-      <c r="C185">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
+    </row>
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
         <v>208</v>
       </c>
       <c r="B186">
         <v>14</v>
       </c>
-      <c r="C186">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
+    </row>
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
         <v>209</v>
       </c>
       <c r="B187">
         <v>15</v>
       </c>
-      <c r="C187">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
+    </row>
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
         <v>210</v>
       </c>
       <c r="B188">
         <v>12</v>
       </c>
-      <c r="C188">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
+    </row>
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
         <v>211</v>
       </c>
       <c r="B189">
         <v>15</v>
       </c>
-      <c r="C189">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
+    </row>
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
         <v>212</v>
       </c>
       <c r="B190">
         <v>13</v>
       </c>
-      <c r="C190">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
+    </row>
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
         <v>213</v>
       </c>
       <c r="B191">
         <v>16</v>
       </c>
-      <c r="C191">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
+    </row>
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
         <v>214</v>
       </c>
       <c r="B192">
         <v>21</v>
       </c>
-      <c r="C192">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
+    </row>
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
         <v>215</v>
       </c>
       <c r="B193">
         <v>16</v>
       </c>
-      <c r="C193">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
+    </row>
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
         <v>216</v>
       </c>
       <c r="B194">
         <v>11</v>
       </c>
-      <c r="C194">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
+    </row>
+    <row r="195" spans="1:2">
       <c r="A195" t="s">
         <v>217</v>
       </c>
       <c r="B195">
         <v>22</v>
       </c>
-      <c r="C195">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
+    </row>
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
         <v>218</v>
       </c>
       <c r="B196">
         <v>15</v>
       </c>
-      <c r="C196">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
+    </row>
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
         <v>219</v>
       </c>
       <c r="B197">
         <v>19</v>
       </c>
-      <c r="C197">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
+    </row>
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
         <v>220</v>
       </c>
       <c r="B198">
         <v>19</v>
       </c>
-      <c r="C198">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
+    </row>
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
         <v>221</v>
       </c>
       <c r="B199">
         <v>17</v>
       </c>
-      <c r="C199">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
+    </row>
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
         <v>222</v>
       </c>
       <c r="B200">
         <v>27</v>
       </c>
-      <c r="C200">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
+    </row>
+    <row r="201" spans="1:2">
       <c r="A201" t="s">
         <v>223</v>
       </c>
       <c r="B201">
         <v>15</v>
       </c>
-      <c r="C201">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
+    </row>
+    <row r="202" spans="1:2">
       <c r="A202" t="s">
         <v>224</v>
       </c>
       <c r="B202">
         <v>21</v>
       </c>
-      <c r="C202">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
+    </row>
+    <row r="203" spans="1:2">
       <c r="A203" t="s">
         <v>225</v>
       </c>
       <c r="B203">
         <v>25</v>
       </c>
-      <c r="C203">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
+    </row>
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
         <v>226</v>
       </c>
       <c r="B204">
         <v>18</v>
       </c>
-      <c r="C204">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
+    </row>
+    <row r="205" spans="1:2">
       <c r="A205" t="s">
         <v>227</v>
       </c>
       <c r="B205">
         <v>30</v>
       </c>
-      <c r="C205">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
+    </row>
+    <row r="206" spans="1:2">
       <c r="A206" t="s">
         <v>228</v>
       </c>
       <c r="B206">
         <v>26</v>
       </c>
-      <c r="C206">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
+    </row>
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
         <v>229</v>
       </c>
       <c r="B207">
         <v>16</v>
       </c>
-      <c r="C207">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
+    </row>
+    <row r="208" spans="1:2">
       <c r="A208" t="s">
         <v>230</v>
       </c>
       <c r="B208">
         <v>7</v>
-      </c>
-      <c r="C208">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -735,10 +735,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-23T18:06:02.310Z</t>
-  </si>
-  <si>
-    <t>2020-09-24T18:06:02.310Z</t>
+    <t>2020-09-23T19:06:04.361Z</t>
+  </si>
+  <si>
+    <t>2020-09-24T19:06:04.361Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -735,10 +735,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-23T20:06:07.145Z</t>
-  </si>
-  <si>
-    <t>2020-09-24T20:06:07.145Z</t>
+    <t>2020-09-23T21:06:10.180Z</t>
+  </si>
+  <si>
+    <t>2020-09-24T21:06:10.180Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -735,10 +735,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-23T21:06:10.180Z</t>
-  </si>
-  <si>
-    <t>2020-09-24T21:06:10.180Z</t>
+    <t>2020-09-23T22:06:14.055Z</t>
+  </si>
+  <si>
+    <t>2020-09-24T22:06:14.055Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -735,10 +735,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-23T22:06:14.055Z</t>
-  </si>
-  <si>
-    <t>2020-09-24T22:06:14.055Z</t>
+    <t>2020-09-23T23:06:17.567Z</t>
+  </si>
+  <si>
+    <t>2020-09-24T23:06:17.567Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2137" uniqueCount="663">
   <si>
     <t>lastUpdate</t>
   </si>
@@ -735,10 +735,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-23T23:06:17.567Z</t>
-  </si>
-  <si>
-    <t>2020-09-24T23:06:17.567Z</t>
+    <t>2020-09-24T00:21:24.224Z</t>
+  </si>
+  <si>
+    <t>2020-09-25T00:21:24.224Z</t>
   </si>
   <si>
     <t>home</t>
@@ -8376,7 +8376,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C226"/>
+  <dimension ref="A1:C227"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10820,6 +10820,17 @@
       </c>
       <c r="C226">
         <v>10.1372785741181</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>230</v>
+      </c>
+      <c r="B227">
+        <v>1.931355105320542</v>
+      </c>
+      <c r="C227">
+        <v>36.23463157170399</v>
       </c>
     </row>
   </sheetData>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -735,10 +735,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-24T00:21:24.224Z</t>
-  </si>
-  <si>
-    <t>2020-09-25T00:21:24.224Z</t>
+    <t>2020-09-24T01:15:29.908Z</t>
+  </si>
+  <si>
+    <t>2020-09-25T01:15:29.908Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -735,10 +735,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-24T01:15:29.908Z</t>
-  </si>
-  <si>
-    <t>2020-09-25T01:15:29.908Z</t>
+    <t>2020-09-24T02:06:33.207Z</t>
+  </si>
+  <si>
+    <t>2020-09-25T02:06:33.207Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -735,10 +735,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-24T02:06:33.207Z</t>
-  </si>
-  <si>
-    <t>2020-09-25T02:06:33.207Z</t>
+    <t>2020-09-24T03:06:38.339Z</t>
+  </si>
+  <si>
+    <t>2020-09-25T03:06:38.339Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -735,10 +735,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-24T03:06:38.339Z</t>
-  </si>
-  <si>
-    <t>2020-09-25T03:06:38.339Z</t>
+    <t>2020-09-24T04:06:43.407Z</t>
+  </si>
+  <si>
+    <t>2020-09-25T04:06:43.407Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -738,10 +738,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-24T05:06:47.776Z</t>
-  </si>
-  <si>
-    <t>2020-09-25T05:06:47.776Z</t>
+    <t>2020-09-24T06:06:50.923Z</t>
+  </si>
+  <si>
+    <t>2020-09-25T06:06:50.923Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -738,10 +738,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-24T06:06:50.923Z</t>
-  </si>
-  <si>
-    <t>2020-09-25T06:06:50.923Z</t>
+    <t>2020-09-24T07:06:54.366Z</t>
+  </si>
+  <si>
+    <t>2020-09-25T07:06:54.367Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="664">
   <si>
     <t>lastUpdate</t>
   </si>
@@ -738,10 +738,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-24T08:06:56.281Z</t>
-  </si>
-  <si>
-    <t>2020-09-25T08:06:56.281Z</t>
+    <t>2020-09-24T09:06:59.316Z</t>
+  </si>
+  <si>
+    <t>2020-09-25T09:06:59.316Z</t>
   </si>
   <si>
     <t>home</t>
@@ -11404,7 +11404,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C209"/>
+  <dimension ref="A1:B209"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11412,2306 +11412,1678 @@
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>34</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>38</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>39</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>41</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>42</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>43</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>44</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>45</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>48</v>
       </c>
       <c r="B26">
         <v>5</v>
       </c>
-      <c r="C26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>49</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>50</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>51</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>52</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>53</v>
       </c>
       <c r="B31">
         <v>4</v>
       </c>
-      <c r="C31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>54</v>
       </c>
       <c r="B32">
         <v>8</v>
       </c>
-      <c r="C32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>55</v>
       </c>
       <c r="B33">
         <v>10</v>
       </c>
-      <c r="C33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>56</v>
       </c>
       <c r="B34">
         <v>5</v>
       </c>
-      <c r="C34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>57</v>
       </c>
       <c r="B35">
         <v>7</v>
       </c>
-      <c r="C35">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>58</v>
       </c>
       <c r="B36">
         <v>6</v>
       </c>
-      <c r="C36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>59</v>
       </c>
       <c r="B37">
         <v>7</v>
       </c>
-      <c r="C37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>60</v>
       </c>
       <c r="B38">
         <v>7</v>
       </c>
-      <c r="C38">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>61</v>
       </c>
       <c r="B39">
         <v>9</v>
       </c>
-      <c r="C39">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>62</v>
       </c>
       <c r="B40">
         <v>9</v>
       </c>
-      <c r="C40">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>63</v>
       </c>
       <c r="B41">
         <v>8</v>
       </c>
-      <c r="C41">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>64</v>
       </c>
       <c r="B42">
         <v>6</v>
       </c>
-      <c r="C42">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>65</v>
       </c>
       <c r="B43">
         <v>7</v>
       </c>
-      <c r="C43">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>66</v>
       </c>
       <c r="B44">
         <v>8</v>
       </c>
-      <c r="C44">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>67</v>
       </c>
       <c r="B45">
         <v>8</v>
       </c>
-      <c r="C45">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>68</v>
       </c>
       <c r="B46">
         <v>13</v>
       </c>
-      <c r="C46">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>69</v>
       </c>
       <c r="B47">
         <v>7</v>
       </c>
-      <c r="C47">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>70</v>
       </c>
       <c r="B48">
         <v>9</v>
       </c>
-      <c r="C48">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>71</v>
       </c>
       <c r="B49">
         <v>11</v>
       </c>
-      <c r="C49">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>72</v>
       </c>
       <c r="B50">
         <v>8</v>
       </c>
-      <c r="C50">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>73</v>
       </c>
       <c r="B51">
         <v>6</v>
       </c>
-      <c r="C51">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>74</v>
       </c>
       <c r="B52">
         <v>9</v>
       </c>
-      <c r="C52">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>75</v>
       </c>
       <c r="B53">
         <v>3</v>
       </c>
-      <c r="C53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>76</v>
       </c>
       <c r="B54">
         <v>4</v>
       </c>
-      <c r="C54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>77</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
-      <c r="C55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>78</v>
       </c>
       <c r="B56">
         <v>3</v>
       </c>
-      <c r="C56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>79</v>
       </c>
       <c r="B57">
         <v>2</v>
       </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>80</v>
       </c>
       <c r="B58">
         <v>4</v>
       </c>
-      <c r="C58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>81</v>
       </c>
       <c r="B59">
         <v>5</v>
       </c>
-      <c r="C59">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>82</v>
       </c>
       <c r="B60">
         <v>6</v>
       </c>
-      <c r="C60">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>83</v>
       </c>
       <c r="B61">
         <v>6</v>
       </c>
-      <c r="C61">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>84</v>
       </c>
       <c r="B62">
         <v>4</v>
       </c>
-      <c r="C62">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>85</v>
       </c>
       <c r="B63">
         <v>3</v>
       </c>
-      <c r="C63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>86</v>
       </c>
       <c r="B64">
         <v>3</v>
       </c>
-      <c r="C64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>87</v>
       </c>
       <c r="B65">
         <v>3</v>
       </c>
-      <c r="C65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>88</v>
       </c>
       <c r="B66">
         <v>2</v>
       </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>89</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>90</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>91</v>
       </c>
       <c r="B69">
         <v>6</v>
       </c>
-      <c r="C69">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>92</v>
       </c>
       <c r="B70">
         <v>2</v>
       </c>
-      <c r="C70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>93</v>
       </c>
       <c r="B71">
         <v>5</v>
       </c>
-      <c r="C71">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>94</v>
       </c>
       <c r="B72">
         <v>5</v>
       </c>
-      <c r="C72">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>95</v>
       </c>
       <c r="B73">
         <v>3</v>
       </c>
-      <c r="C73">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>96</v>
       </c>
       <c r="B74">
         <v>3</v>
       </c>
-      <c r="C74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>97</v>
       </c>
       <c r="B75">
         <v>2</v>
       </c>
-      <c r="C75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>98</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>99</v>
       </c>
       <c r="B77">
         <v>3</v>
       </c>
-      <c r="C77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>100</v>
       </c>
       <c r="B78">
         <v>4</v>
       </c>
-      <c r="C78">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>101</v>
       </c>
       <c r="B79">
         <v>3</v>
       </c>
-      <c r="C79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>102</v>
       </c>
       <c r="B80">
         <v>2</v>
       </c>
-      <c r="C80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>103</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>104</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>105</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>106</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>107</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>108</v>
       </c>
       <c r="B86">
         <v>2</v>
       </c>
-      <c r="C86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>109</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>110</v>
       </c>
       <c r="B88">
         <v>2</v>
       </c>
-      <c r="C88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>111</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>112</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>113</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>114</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>115</v>
       </c>
       <c r="B93">
         <v>3</v>
       </c>
-      <c r="C93">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>116</v>
       </c>
       <c r="B94">
         <v>2</v>
       </c>
-      <c r="C94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>117</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>118</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>119</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>120</v>
       </c>
       <c r="B98">
         <v>4</v>
       </c>
-      <c r="C98">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>121</v>
       </c>
       <c r="B99">
         <v>2</v>
       </c>
-      <c r="C99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>122</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>123</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>124</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>125</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>126</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>127</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>128</v>
       </c>
       <c r="B106">
         <v>2</v>
       </c>
-      <c r="C106">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>129</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>130</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>131</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>132</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>133</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
-      <c r="C111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>134</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
-      <c r="C112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>135</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>136</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>137</v>
       </c>
       <c r="B115">
         <v>2</v>
       </c>
-      <c r="C115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>138</v>
       </c>
       <c r="B116">
         <v>3</v>
       </c>
-      <c r="C116">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+    </row>
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>139</v>
       </c>
       <c r="B117">
         <v>4</v>
       </c>
-      <c r="C117">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+    </row>
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>140</v>
       </c>
       <c r="B118">
         <v>3</v>
       </c>
-      <c r="C118">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+    </row>
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>141</v>
       </c>
       <c r="B119">
         <v>3</v>
       </c>
-      <c r="C119">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>142</v>
       </c>
       <c r="B120">
         <v>2</v>
       </c>
-      <c r="C120">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+    </row>
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>143</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+    </row>
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>144</v>
       </c>
       <c r="B122">
         <v>1</v>
       </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+    </row>
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>145</v>
       </c>
       <c r="B123">
         <v>3</v>
       </c>
-      <c r="C123">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+    </row>
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>146</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+    </row>
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>147</v>
       </c>
       <c r="B125">
         <v>2</v>
       </c>
-      <c r="C125">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+    </row>
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>148</v>
       </c>
       <c r="B126">
         <v>6</v>
       </c>
-      <c r="C126">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+    </row>
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>149</v>
       </c>
       <c r="B127">
         <v>2</v>
       </c>
-      <c r="C127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+    </row>
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>150</v>
       </c>
       <c r="B128">
         <v>8</v>
       </c>
-      <c r="C128">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+    </row>
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>151</v>
       </c>
       <c r="B129">
         <v>5</v>
       </c>
-      <c r="C129">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+    </row>
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>152</v>
       </c>
       <c r="B130">
         <v>5</v>
       </c>
-      <c r="C130">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+    </row>
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>153</v>
       </c>
       <c r="B131">
         <v>5</v>
       </c>
-      <c r="C131">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>154</v>
       </c>
       <c r="B132">
         <v>4</v>
       </c>
-      <c r="C132">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+    </row>
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>155</v>
       </c>
       <c r="B133">
         <v>5</v>
       </c>
-      <c r="C133">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+    </row>
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>156</v>
       </c>
       <c r="B134">
         <v>7</v>
       </c>
-      <c r="C134">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+    </row>
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>157</v>
       </c>
       <c r="B135">
         <v>4</v>
       </c>
-      <c r="C135">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+    </row>
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>158</v>
       </c>
       <c r="B136">
         <v>7</v>
       </c>
-      <c r="C136">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+    </row>
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>159</v>
       </c>
       <c r="B137">
         <v>6</v>
       </c>
-      <c r="C137">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+    </row>
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>160</v>
       </c>
       <c r="B138">
         <v>9</v>
       </c>
-      <c r="C138">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+    </row>
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>161</v>
       </c>
       <c r="B139">
         <v>12</v>
       </c>
-      <c r="C139">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+    </row>
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>162</v>
       </c>
       <c r="B140">
         <v>8</v>
       </c>
-      <c r="C140">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+    </row>
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>163</v>
       </c>
       <c r="B141">
         <v>10</v>
       </c>
-      <c r="C141">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+    </row>
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
         <v>164</v>
       </c>
       <c r="B142">
         <v>12</v>
       </c>
-      <c r="C142">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+    </row>
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
         <v>165</v>
       </c>
       <c r="B143">
         <v>9</v>
       </c>
-      <c r="C143">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+    </row>
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
         <v>166</v>
       </c>
       <c r="B144">
         <v>5</v>
       </c>
-      <c r="C144">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+    </row>
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>167</v>
       </c>
       <c r="B145">
         <v>16</v>
       </c>
-      <c r="C145">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+    </row>
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>168</v>
       </c>
       <c r="B146">
         <v>8</v>
       </c>
-      <c r="C146">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+    </row>
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>169</v>
       </c>
       <c r="B147">
         <v>7</v>
       </c>
-      <c r="C147">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+    </row>
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
         <v>170</v>
       </c>
       <c r="B148">
         <v>10</v>
       </c>
-      <c r="C148">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+    </row>
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
         <v>171</v>
       </c>
       <c r="B149">
         <v>7</v>
       </c>
-      <c r="C149">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+    </row>
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
         <v>172</v>
       </c>
       <c r="B150">
         <v>8</v>
       </c>
-      <c r="C150">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+    </row>
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
         <v>173</v>
       </c>
       <c r="B151">
         <v>15</v>
       </c>
-      <c r="C151">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+    </row>
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>174</v>
       </c>
       <c r="B152">
         <v>14</v>
       </c>
-      <c r="C152">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+    </row>
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
         <v>175</v>
       </c>
       <c r="B153">
         <v>15</v>
       </c>
-      <c r="C153">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+    </row>
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>176</v>
       </c>
       <c r="B154">
         <v>14</v>
       </c>
-      <c r="C154">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+    </row>
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
         <v>177</v>
       </c>
       <c r="B155">
         <v>11</v>
       </c>
-      <c r="C155">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
+    </row>
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>178</v>
       </c>
       <c r="B156">
         <v>15</v>
       </c>
-      <c r="C156">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+    </row>
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
         <v>179</v>
       </c>
       <c r="B157">
         <v>11</v>
       </c>
-      <c r="C157">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+    </row>
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
         <v>180</v>
       </c>
       <c r="B158">
         <v>10</v>
       </c>
-      <c r="C158">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+    </row>
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
         <v>181</v>
       </c>
       <c r="B159">
         <v>9</v>
       </c>
-      <c r="C159">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
+    </row>
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
         <v>182</v>
       </c>
       <c r="B160">
         <v>11</v>
       </c>
-      <c r="C160">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+    </row>
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
         <v>183</v>
       </c>
       <c r="B161">
         <v>14</v>
       </c>
-      <c r="C161">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+    </row>
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
         <v>184</v>
       </c>
       <c r="B162">
         <v>7</v>
       </c>
-      <c r="C162">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
+    </row>
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
         <v>185</v>
       </c>
       <c r="B163">
         <v>15</v>
       </c>
-      <c r="C163">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+    </row>
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
         <v>186</v>
       </c>
       <c r="B164">
         <v>11</v>
       </c>
-      <c r="C164">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+    </row>
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
         <v>187</v>
       </c>
       <c r="B165">
         <v>14</v>
       </c>
-      <c r="C165">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
+    </row>
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
         <v>188</v>
       </c>
       <c r="B166">
         <v>17</v>
       </c>
-      <c r="C166">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+    </row>
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
         <v>189</v>
       </c>
       <c r="B167">
         <v>12</v>
       </c>
-      <c r="C167">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+    </row>
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
         <v>190</v>
       </c>
       <c r="B168">
         <v>10</v>
       </c>
-      <c r="C168">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+    </row>
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
         <v>191</v>
       </c>
       <c r="B169">
         <v>17</v>
       </c>
-      <c r="C169">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+    </row>
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
         <v>192</v>
       </c>
       <c r="B170">
         <v>6</v>
       </c>
-      <c r="C170">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+    </row>
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
         <v>193</v>
       </c>
       <c r="B171">
         <v>12</v>
       </c>
-      <c r="C171">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
+    </row>
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
         <v>194</v>
       </c>
       <c r="B172">
         <v>13</v>
       </c>
-      <c r="C172">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
+    </row>
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
         <v>195</v>
       </c>
       <c r="B173">
         <v>13</v>
       </c>
-      <c r="C173">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
+    </row>
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
         <v>196</v>
       </c>
       <c r="B174">
         <v>12</v>
       </c>
-      <c r="C174">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
+    </row>
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
         <v>197</v>
       </c>
       <c r="B175">
         <v>12</v>
       </c>
-      <c r="C175">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
+    </row>
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
         <v>198</v>
       </c>
       <c r="B176">
         <v>13</v>
       </c>
-      <c r="C176">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
+    </row>
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
         <v>199</v>
       </c>
       <c r="B177">
         <v>15</v>
       </c>
-      <c r="C177">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
+    </row>
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
         <v>200</v>
       </c>
       <c r="B178">
         <v>18</v>
       </c>
-      <c r="C178">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
+    </row>
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
         <v>201</v>
       </c>
       <c r="B179">
         <v>11</v>
       </c>
-      <c r="C179">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
+    </row>
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
         <v>202</v>
       </c>
       <c r="B180">
         <v>12</v>
       </c>
-      <c r="C180">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
+    </row>
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
         <v>203</v>
       </c>
       <c r="B181">
         <v>11</v>
       </c>
-      <c r="C181">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
+    </row>
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
         <v>204</v>
       </c>
       <c r="B182">
         <v>5</v>
       </c>
-      <c r="C182">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
+    </row>
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
         <v>205</v>
       </c>
       <c r="B183">
         <v>15</v>
       </c>
-      <c r="C183">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
+    </row>
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
         <v>206</v>
       </c>
       <c r="B184">
         <v>22</v>
       </c>
-      <c r="C184">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
+    </row>
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
         <v>207</v>
       </c>
       <c r="B185">
         <v>16</v>
       </c>
-      <c r="C185">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
+    </row>
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
         <v>208</v>
       </c>
       <c r="B186">
         <v>14</v>
       </c>
-      <c r="C186">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
+    </row>
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
         <v>209</v>
       </c>
       <c r="B187">
         <v>15</v>
       </c>
-      <c r="C187">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
+    </row>
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
         <v>210</v>
       </c>
       <c r="B188">
         <v>12</v>
       </c>
-      <c r="C188">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
+    </row>
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
         <v>211</v>
       </c>
       <c r="B189">
         <v>15</v>
       </c>
-      <c r="C189">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
+    </row>
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
         <v>212</v>
       </c>
       <c r="B190">
         <v>13</v>
       </c>
-      <c r="C190">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
+    </row>
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
         <v>213</v>
       </c>
       <c r="B191">
         <v>16</v>
       </c>
-      <c r="C191">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
+    </row>
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
         <v>214</v>
       </c>
       <c r="B192">
         <v>21</v>
       </c>
-      <c r="C192">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
+    </row>
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
         <v>215</v>
       </c>
       <c r="B193">
         <v>16</v>
       </c>
-      <c r="C193">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
+    </row>
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
         <v>216</v>
       </c>
       <c r="B194">
         <v>11</v>
       </c>
-      <c r="C194">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
+    </row>
+    <row r="195" spans="1:2">
       <c r="A195" t="s">
         <v>217</v>
       </c>
       <c r="B195">
         <v>22</v>
       </c>
-      <c r="C195">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
+    </row>
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
         <v>218</v>
       </c>
       <c r="B196">
         <v>15</v>
       </c>
-      <c r="C196">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
+    </row>
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
         <v>219</v>
       </c>
       <c r="B197">
         <v>19</v>
       </c>
-      <c r="C197">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
+    </row>
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
         <v>220</v>
       </c>
       <c r="B198">
         <v>19</v>
       </c>
-      <c r="C198">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
+    </row>
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
         <v>221</v>
       </c>
       <c r="B199">
         <v>17</v>
       </c>
-      <c r="C199">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
+    </row>
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
         <v>222</v>
       </c>
       <c r="B200">
         <v>27</v>
       </c>
-      <c r="C200">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
+    </row>
+    <row r="201" spans="1:2">
       <c r="A201" t="s">
         <v>223</v>
       </c>
       <c r="B201">
         <v>15</v>
       </c>
-      <c r="C201">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
+    </row>
+    <row r="202" spans="1:2">
       <c r="A202" t="s">
         <v>224</v>
       </c>
       <c r="B202">
         <v>21</v>
       </c>
-      <c r="C202">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
+    </row>
+    <row r="203" spans="1:2">
       <c r="A203" t="s">
         <v>225</v>
       </c>
       <c r="B203">
         <v>25</v>
       </c>
-      <c r="C203">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
+    </row>
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
         <v>226</v>
       </c>
       <c r="B204">
         <v>18</v>
       </c>
-      <c r="C204">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
+    </row>
+    <row r="205" spans="1:2">
       <c r="A205" t="s">
         <v>227</v>
       </c>
       <c r="B205">
         <v>30</v>
       </c>
-      <c r="C205">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
+    </row>
+    <row r="206" spans="1:2">
       <c r="A206" t="s">
         <v>228</v>
       </c>
       <c r="B206">
         <v>26</v>
       </c>
-      <c r="C206">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
+    </row>
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
         <v>229</v>
       </c>
       <c r="B207">
         <v>22</v>
       </c>
-      <c r="C207">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
+    </row>
+    <row r="208" spans="1:2">
       <c r="A208" t="s">
         <v>230</v>
       </c>
       <c r="B208">
         <v>22</v>
       </c>
-      <c r="C208">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
+    </row>
+    <row r="209" spans="1:2">
       <c r="A209" t="s">
         <v>231</v>
       </c>
       <c r="B209">
         <v>8</v>
-      </c>
-      <c r="C209">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -738,10 +738,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-24T09:06:59.316Z</t>
-  </si>
-  <si>
-    <t>2020-09-25T09:06:59.316Z</t>
+    <t>2020-09-24T10:07:02.611Z</t>
+  </si>
+  <si>
+    <t>2020-09-25T10:07:02.611Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -738,10 +738,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-24T10:07:02.611Z</t>
-  </si>
-  <si>
-    <t>2020-09-25T10:07:02.611Z</t>
+    <t>2020-09-24T11:07:06.548Z</t>
+  </si>
+  <si>
+    <t>2020-09-25T11:07:06.548Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -738,10 +738,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-24T11:07:06.548Z</t>
-  </si>
-  <si>
-    <t>2020-09-25T11:07:06.548Z</t>
+    <t>2020-09-24T12:13:10.102Z</t>
+  </si>
+  <si>
+    <t>2020-09-25T12:13:10.102Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -738,10 +738,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-24T12:13:10.102Z</t>
-  </si>
-  <si>
-    <t>2020-09-25T12:13:10.102Z</t>
+    <t>2020-09-24T13:07:12.115Z</t>
+  </si>
+  <si>
+    <t>2020-09-25T13:07:12.115Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -738,10 +738,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-24T13:07:12.115Z</t>
-  </si>
-  <si>
-    <t>2020-09-25T13:07:12.115Z</t>
+    <t>2020-09-24T14:07:14.772Z</t>
+  </si>
+  <si>
+    <t>2020-09-25T14:07:14.772Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -738,10 +738,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-24T14:07:14.772Z</t>
-  </si>
-  <si>
-    <t>2020-09-25T14:07:14.772Z</t>
+    <t>2020-09-24T15:07:17.469Z</t>
+  </si>
+  <si>
+    <t>2020-09-25T15:07:17.469Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -738,10 +738,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-24T15:07:17.469Z</t>
-  </si>
-  <si>
-    <t>2020-09-25T15:07:17.469Z</t>
+    <t>2020-09-24T16:07:19.957Z</t>
+  </si>
+  <si>
+    <t>2020-09-25T16:07:19.957Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -738,10 +738,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-24T16:07:19.957Z</t>
-  </si>
-  <si>
-    <t>2020-09-25T16:07:19.957Z</t>
+    <t>2020-09-24T17:07:22.847Z</t>
+  </si>
+  <si>
+    <t>2020-09-25T17:07:22.847Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -738,10 +738,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-24T17:07:22.847Z</t>
-  </si>
-  <si>
-    <t>2020-09-25T17:07:22.847Z</t>
+    <t>2020-09-24T18:07:26.751Z</t>
+  </si>
+  <si>
+    <t>2020-09-25T18:07:26.751Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -738,10 +738,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-24T18:07:26.751Z</t>
-  </si>
-  <si>
-    <t>2020-09-25T18:07:26.751Z</t>
+    <t>2020-09-24T19:07:30.969Z</t>
+  </si>
+  <si>
+    <t>2020-09-25T19:07:30.969Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -738,10 +738,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-24T19:07:30.969Z</t>
-  </si>
-  <si>
-    <t>2020-09-25T19:07:30.969Z</t>
+    <t>2020-09-24T20:07:34.019Z</t>
+  </si>
+  <si>
+    <t>2020-09-25T20:07:34.019Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -738,10 +738,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-24T20:07:34.019Z</t>
-  </si>
-  <si>
-    <t>2020-09-25T20:07:34.019Z</t>
+    <t>2020-09-24T21:07:38.736Z</t>
+  </si>
+  <si>
+    <t>2020-09-25T21:07:38.736Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -738,10 +738,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-24T21:07:38.736Z</t>
-  </si>
-  <si>
-    <t>2020-09-25T21:07:38.736Z</t>
+    <t>2020-09-24T22:07:44.382Z</t>
+  </si>
+  <si>
+    <t>2020-09-25T22:07:44.382Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -738,10 +738,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-24T22:07:44.382Z</t>
-  </si>
-  <si>
-    <t>2020-09-25T22:07:44.382Z</t>
+    <t>2020-09-24T23:04:48.609Z</t>
+  </si>
+  <si>
+    <t>2020-09-25T23:04:48.609Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="664">
   <si>
     <t>lastUpdate</t>
   </si>
@@ -738,10 +738,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-24T23:04:48.609Z</t>
-  </si>
-  <si>
-    <t>2020-09-25T23:04:48.609Z</t>
+    <t>2020-09-25T00:19:59.025Z</t>
+  </si>
+  <si>
+    <t>2020-09-26T00:19:59.025Z</t>
   </si>
   <si>
     <t>home</t>
@@ -8379,7 +8379,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C227"/>
+  <dimension ref="A1:C228"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10834,6 +10834,17 @@
       </c>
       <c r="C227">
         <v>10.60781204407202</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>231</v>
+      </c>
+      <c r="B228">
+        <v>-11.02807729262303</v>
+      </c>
+      <c r="C228">
+        <v>-5.931973370863759</v>
       </c>
     </row>
   </sheetData>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -738,10 +738,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-25T00:19:59.025Z</t>
-  </si>
-  <si>
-    <t>2020-09-26T00:19:59.025Z</t>
+    <t>2020-09-25T01:14:05.399Z</t>
+  </si>
+  <si>
+    <t>2020-09-26T01:14:05.399Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -738,10 +738,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-25T01:14:05.399Z</t>
-  </si>
-  <si>
-    <t>2020-09-26T01:14:05.399Z</t>
+    <t>2020-09-25T02:08:12.344Z</t>
+  </si>
+  <si>
+    <t>2020-09-26T02:08:12.344Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -738,10 +738,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-25T02:08:12.344Z</t>
-  </si>
-  <si>
-    <t>2020-09-26T02:08:12.344Z</t>
+    <t>2020-09-25T03:05:17.799Z</t>
+  </si>
+  <si>
+    <t>2020-09-26T03:05:17.799Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -738,10 +738,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-25T03:05:17.799Z</t>
-  </si>
-  <si>
-    <t>2020-09-26T03:05:17.799Z</t>
+    <t>2020-09-25T04:08:26.563Z</t>
+  </si>
+  <si>
+    <t>2020-09-26T04:08:26.563Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -738,10 +738,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-25T04:08:26.563Z</t>
-  </si>
-  <si>
-    <t>2020-09-26T04:08:26.563Z</t>
+    <t>2020-09-25T05:05:32.497Z</t>
+  </si>
+  <si>
+    <t>2020-09-26T05:05:32.497Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -738,10 +738,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-25T05:05:32.497Z</t>
-  </si>
-  <si>
-    <t>2020-09-26T05:05:32.497Z</t>
+    <t>2020-09-25T06:08:37.565Z</t>
+  </si>
+  <si>
+    <t>2020-09-26T06:08:37.565Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -738,10 +738,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-25T06:08:37.565Z</t>
-  </si>
-  <si>
-    <t>2020-09-26T06:08:37.565Z</t>
+    <t>2020-09-25T07:05:43.840Z</t>
+  </si>
+  <si>
+    <t>2020-09-26T07:05:43.840Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -738,10 +738,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-25T07:05:43.840Z</t>
-  </si>
-  <si>
-    <t>2020-09-26T07:05:43.840Z</t>
+    <t>2020-09-25T08:05:48.488Z</t>
+  </si>
+  <si>
+    <t>2020-09-26T08:05:48.488Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -738,10 +738,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-25T08:05:48.488Z</t>
-  </si>
-  <si>
-    <t>2020-09-26T08:05:48.488Z</t>
+    <t>2020-09-25T09:05:53.963Z</t>
+  </si>
+  <si>
+    <t>2020-09-26T09:05:53.963Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -738,10 +738,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-25T09:05:53.963Z</t>
-  </si>
-  <si>
-    <t>2020-09-26T09:05:53.963Z</t>
+    <t>2020-09-25T10:05:58.344Z</t>
+  </si>
+  <si>
+    <t>2020-09-26T10:05:58.344Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -738,10 +738,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-25T10:05:58.344Z</t>
-  </si>
-  <si>
-    <t>2020-09-26T10:05:58.344Z</t>
+    <t>2020-09-25T11:06:04.900Z</t>
+  </si>
+  <si>
+    <t>2020-09-26T11:06:04.900Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -738,10 +738,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-25T11:06:04.900Z</t>
-  </si>
-  <si>
-    <t>2020-09-26T11:06:04.900Z</t>
+    <t>2020-09-25T12:09:12.777Z</t>
+  </si>
+  <si>
+    <t>2020-09-26T12:09:12.777Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -738,10 +738,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-25T12:09:12.777Z</t>
-  </si>
-  <si>
-    <t>2020-09-26T12:09:12.777Z</t>
+    <t>2020-09-25T13:06:17.348Z</t>
+  </si>
+  <si>
+    <t>2020-09-26T13:06:17.348Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="664">
   <si>
     <t>lastUpdate</t>
   </si>
@@ -738,10 +738,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-25T14:06:22.663Z</t>
-  </si>
-  <si>
-    <t>2020-09-26T14:06:22.663Z</t>
+    <t>2020-09-25T15:06:29.680Z</t>
+  </si>
+  <si>
+    <t>2020-09-26T15:06:29.680Z</t>
   </si>
   <si>
     <t>home</t>
@@ -11415,7 +11415,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C209"/>
+  <dimension ref="A1:B209"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11423,2306 +11423,1678 @@
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>34</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>38</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>39</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>41</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>42</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>43</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>44</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>45</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>48</v>
       </c>
       <c r="B26">
         <v>5</v>
       </c>
-      <c r="C26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>49</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>50</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>51</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>52</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>53</v>
       </c>
       <c r="B31">
         <v>4</v>
       </c>
-      <c r="C31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>54</v>
       </c>
       <c r="B32">
         <v>8</v>
       </c>
-      <c r="C32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>55</v>
       </c>
       <c r="B33">
         <v>10</v>
       </c>
-      <c r="C33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>56</v>
       </c>
       <c r="B34">
         <v>5</v>
       </c>
-      <c r="C34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>57</v>
       </c>
       <c r="B35">
         <v>7</v>
       </c>
-      <c r="C35">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>58</v>
       </c>
       <c r="B36">
         <v>6</v>
       </c>
-      <c r="C36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>59</v>
       </c>
       <c r="B37">
         <v>7</v>
       </c>
-      <c r="C37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>60</v>
       </c>
       <c r="B38">
         <v>7</v>
       </c>
-      <c r="C38">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>61</v>
       </c>
       <c r="B39">
         <v>9</v>
       </c>
-      <c r="C39">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>62</v>
       </c>
       <c r="B40">
         <v>9</v>
       </c>
-      <c r="C40">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>63</v>
       </c>
       <c r="B41">
         <v>8</v>
       </c>
-      <c r="C41">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>64</v>
       </c>
       <c r="B42">
         <v>6</v>
       </c>
-      <c r="C42">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>65</v>
       </c>
       <c r="B43">
         <v>7</v>
       </c>
-      <c r="C43">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>66</v>
       </c>
       <c r="B44">
         <v>8</v>
       </c>
-      <c r="C44">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>67</v>
       </c>
       <c r="B45">
         <v>8</v>
       </c>
-      <c r="C45">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>68</v>
       </c>
       <c r="B46">
         <v>13</v>
       </c>
-      <c r="C46">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>69</v>
       </c>
       <c r="B47">
         <v>7</v>
       </c>
-      <c r="C47">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>70</v>
       </c>
       <c r="B48">
         <v>9</v>
       </c>
-      <c r="C48">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>71</v>
       </c>
       <c r="B49">
         <v>11</v>
       </c>
-      <c r="C49">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>72</v>
       </c>
       <c r="B50">
         <v>8</v>
       </c>
-      <c r="C50">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>73</v>
       </c>
       <c r="B51">
         <v>6</v>
       </c>
-      <c r="C51">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>74</v>
       </c>
       <c r="B52">
         <v>9</v>
       </c>
-      <c r="C52">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>75</v>
       </c>
       <c r="B53">
         <v>3</v>
       </c>
-      <c r="C53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>76</v>
       </c>
       <c r="B54">
         <v>4</v>
       </c>
-      <c r="C54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>77</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
-      <c r="C55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>78</v>
       </c>
       <c r="B56">
         <v>3</v>
       </c>
-      <c r="C56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>79</v>
       </c>
       <c r="B57">
         <v>2</v>
       </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>80</v>
       </c>
       <c r="B58">
         <v>4</v>
       </c>
-      <c r="C58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>81</v>
       </c>
       <c r="B59">
         <v>5</v>
       </c>
-      <c r="C59">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>82</v>
       </c>
       <c r="B60">
         <v>6</v>
       </c>
-      <c r="C60">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>83</v>
       </c>
       <c r="B61">
         <v>6</v>
       </c>
-      <c r="C61">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>84</v>
       </c>
       <c r="B62">
         <v>4</v>
       </c>
-      <c r="C62">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>85</v>
       </c>
       <c r="B63">
         <v>3</v>
       </c>
-      <c r="C63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>86</v>
       </c>
       <c r="B64">
         <v>3</v>
       </c>
-      <c r="C64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>87</v>
       </c>
       <c r="B65">
         <v>3</v>
       </c>
-      <c r="C65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>88</v>
       </c>
       <c r="B66">
         <v>2</v>
       </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>89</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>90</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>91</v>
       </c>
       <c r="B69">
         <v>6</v>
       </c>
-      <c r="C69">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>92</v>
       </c>
       <c r="B70">
         <v>2</v>
       </c>
-      <c r="C70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>93</v>
       </c>
       <c r="B71">
         <v>5</v>
       </c>
-      <c r="C71">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>94</v>
       </c>
       <c r="B72">
         <v>5</v>
       </c>
-      <c r="C72">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>95</v>
       </c>
       <c r="B73">
         <v>3</v>
       </c>
-      <c r="C73">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>96</v>
       </c>
       <c r="B74">
         <v>3</v>
       </c>
-      <c r="C74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>97</v>
       </c>
       <c r="B75">
         <v>2</v>
       </c>
-      <c r="C75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>98</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>99</v>
       </c>
       <c r="B77">
         <v>3</v>
       </c>
-      <c r="C77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>100</v>
       </c>
       <c r="B78">
         <v>4</v>
       </c>
-      <c r="C78">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>101</v>
       </c>
       <c r="B79">
         <v>3</v>
       </c>
-      <c r="C79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>102</v>
       </c>
       <c r="B80">
         <v>2</v>
       </c>
-      <c r="C80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>103</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>104</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>105</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>106</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>107</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>108</v>
       </c>
       <c r="B86">
         <v>2</v>
       </c>
-      <c r="C86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>109</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>110</v>
       </c>
       <c r="B88">
         <v>2</v>
       </c>
-      <c r="C88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>111</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>112</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>113</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>114</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>115</v>
       </c>
       <c r="B93">
         <v>3</v>
       </c>
-      <c r="C93">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>116</v>
       </c>
       <c r="B94">
         <v>2</v>
       </c>
-      <c r="C94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>117</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>118</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>119</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>120</v>
       </c>
       <c r="B98">
         <v>4</v>
       </c>
-      <c r="C98">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>121</v>
       </c>
       <c r="B99">
         <v>2</v>
       </c>
-      <c r="C99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>122</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>123</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>124</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>125</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>126</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>127</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>128</v>
       </c>
       <c r="B106">
         <v>2</v>
       </c>
-      <c r="C106">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>129</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>130</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>131</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>132</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>133</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
-      <c r="C111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>134</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
-      <c r="C112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>135</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>136</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>137</v>
       </c>
       <c r="B115">
         <v>2</v>
       </c>
-      <c r="C115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>138</v>
       </c>
       <c r="B116">
         <v>3</v>
       </c>
-      <c r="C116">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+    </row>
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>139</v>
       </c>
       <c r="B117">
         <v>4</v>
       </c>
-      <c r="C117">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+    </row>
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>140</v>
       </c>
       <c r="B118">
         <v>3</v>
       </c>
-      <c r="C118">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+    </row>
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>141</v>
       </c>
       <c r="B119">
         <v>3</v>
       </c>
-      <c r="C119">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>142</v>
       </c>
       <c r="B120">
         <v>2</v>
       </c>
-      <c r="C120">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+    </row>
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>143</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+    </row>
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>144</v>
       </c>
       <c r="B122">
         <v>1</v>
       </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+    </row>
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>145</v>
       </c>
       <c r="B123">
         <v>3</v>
       </c>
-      <c r="C123">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+    </row>
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>146</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+    </row>
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>147</v>
       </c>
       <c r="B125">
         <v>2</v>
       </c>
-      <c r="C125">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+    </row>
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>148</v>
       </c>
       <c r="B126">
         <v>6</v>
       </c>
-      <c r="C126">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+    </row>
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>149</v>
       </c>
       <c r="B127">
         <v>2</v>
       </c>
-      <c r="C127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+    </row>
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>150</v>
       </c>
       <c r="B128">
         <v>8</v>
       </c>
-      <c r="C128">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+    </row>
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>151</v>
       </c>
       <c r="B129">
         <v>5</v>
       </c>
-      <c r="C129">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+    </row>
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>152</v>
       </c>
       <c r="B130">
         <v>5</v>
       </c>
-      <c r="C130">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+    </row>
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>153</v>
       </c>
       <c r="B131">
         <v>5</v>
       </c>
-      <c r="C131">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>154</v>
       </c>
       <c r="B132">
         <v>4</v>
       </c>
-      <c r="C132">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+    </row>
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>155</v>
       </c>
       <c r="B133">
         <v>5</v>
       </c>
-      <c r="C133">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+    </row>
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>156</v>
       </c>
       <c r="B134">
         <v>7</v>
       </c>
-      <c r="C134">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+    </row>
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>157</v>
       </c>
       <c r="B135">
         <v>4</v>
       </c>
-      <c r="C135">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+    </row>
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>158</v>
       </c>
       <c r="B136">
         <v>7</v>
       </c>
-      <c r="C136">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+    </row>
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>159</v>
       </c>
       <c r="B137">
         <v>6</v>
       </c>
-      <c r="C137">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+    </row>
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>160</v>
       </c>
       <c r="B138">
         <v>9</v>
       </c>
-      <c r="C138">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+    </row>
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>161</v>
       </c>
       <c r="B139">
         <v>12</v>
       </c>
-      <c r="C139">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+    </row>
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>162</v>
       </c>
       <c r="B140">
         <v>8</v>
       </c>
-      <c r="C140">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+    </row>
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>163</v>
       </c>
       <c r="B141">
         <v>10</v>
       </c>
-      <c r="C141">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+    </row>
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
         <v>164</v>
       </c>
       <c r="B142">
         <v>12</v>
       </c>
-      <c r="C142">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+    </row>
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
         <v>165</v>
       </c>
       <c r="B143">
         <v>9</v>
       </c>
-      <c r="C143">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+    </row>
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
         <v>166</v>
       </c>
       <c r="B144">
         <v>5</v>
       </c>
-      <c r="C144">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+    </row>
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>167</v>
       </c>
       <c r="B145">
         <v>16</v>
       </c>
-      <c r="C145">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+    </row>
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>168</v>
       </c>
       <c r="B146">
         <v>8</v>
       </c>
-      <c r="C146">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+    </row>
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>169</v>
       </c>
       <c r="B147">
         <v>7</v>
       </c>
-      <c r="C147">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+    </row>
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
         <v>170</v>
       </c>
       <c r="B148">
         <v>10</v>
       </c>
-      <c r="C148">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+    </row>
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
         <v>171</v>
       </c>
       <c r="B149">
         <v>7</v>
       </c>
-      <c r="C149">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+    </row>
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
         <v>172</v>
       </c>
       <c r="B150">
         <v>8</v>
       </c>
-      <c r="C150">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+    </row>
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
         <v>173</v>
       </c>
       <c r="B151">
         <v>15</v>
       </c>
-      <c r="C151">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+    </row>
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>174</v>
       </c>
       <c r="B152">
         <v>14</v>
       </c>
-      <c r="C152">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+    </row>
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
         <v>175</v>
       </c>
       <c r="B153">
         <v>15</v>
       </c>
-      <c r="C153">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+    </row>
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>176</v>
       </c>
       <c r="B154">
         <v>14</v>
       </c>
-      <c r="C154">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+    </row>
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
         <v>177</v>
       </c>
       <c r="B155">
         <v>11</v>
       </c>
-      <c r="C155">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
+    </row>
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>178</v>
       </c>
       <c r="B156">
         <v>15</v>
       </c>
-      <c r="C156">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+    </row>
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
         <v>179</v>
       </c>
       <c r="B157">
         <v>11</v>
       </c>
-      <c r="C157">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+    </row>
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
         <v>180</v>
       </c>
       <c r="B158">
         <v>10</v>
       </c>
-      <c r="C158">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+    </row>
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
         <v>181</v>
       </c>
       <c r="B159">
         <v>9</v>
       </c>
-      <c r="C159">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
+    </row>
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
         <v>182</v>
       </c>
       <c r="B160">
         <v>11</v>
       </c>
-      <c r="C160">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+    </row>
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
         <v>183</v>
       </c>
       <c r="B161">
         <v>14</v>
       </c>
-      <c r="C161">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+    </row>
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
         <v>184</v>
       </c>
       <c r="B162">
         <v>7</v>
       </c>
-      <c r="C162">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
+    </row>
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
         <v>185</v>
       </c>
       <c r="B163">
         <v>15</v>
       </c>
-      <c r="C163">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+    </row>
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
         <v>186</v>
       </c>
       <c r="B164">
         <v>11</v>
       </c>
-      <c r="C164">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+    </row>
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
         <v>187</v>
       </c>
       <c r="B165">
         <v>14</v>
       </c>
-      <c r="C165">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
+    </row>
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
         <v>188</v>
       </c>
       <c r="B166">
         <v>17</v>
       </c>
-      <c r="C166">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+    </row>
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
         <v>189</v>
       </c>
       <c r="B167">
         <v>12</v>
       </c>
-      <c r="C167">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+    </row>
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
         <v>190</v>
       </c>
       <c r="B168">
         <v>10</v>
       </c>
-      <c r="C168">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+    </row>
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
         <v>191</v>
       </c>
       <c r="B169">
         <v>17</v>
       </c>
-      <c r="C169">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+    </row>
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
         <v>192</v>
       </c>
       <c r="B170">
         <v>6</v>
       </c>
-      <c r="C170">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+    </row>
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
         <v>193</v>
       </c>
       <c r="B171">
         <v>12</v>
       </c>
-      <c r="C171">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
+    </row>
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
         <v>194</v>
       </c>
       <c r="B172">
         <v>13</v>
       </c>
-      <c r="C172">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
+    </row>
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
         <v>195</v>
       </c>
       <c r="B173">
         <v>13</v>
       </c>
-      <c r="C173">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
+    </row>
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
         <v>196</v>
       </c>
       <c r="B174">
         <v>12</v>
       </c>
-      <c r="C174">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
+    </row>
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
         <v>197</v>
       </c>
       <c r="B175">
         <v>12</v>
       </c>
-      <c r="C175">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
+    </row>
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
         <v>198</v>
       </c>
       <c r="B176">
         <v>13</v>
       </c>
-      <c r="C176">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
+    </row>
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
         <v>199</v>
       </c>
       <c r="B177">
         <v>15</v>
       </c>
-      <c r="C177">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
+    </row>
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
         <v>200</v>
       </c>
       <c r="B178">
         <v>18</v>
       </c>
-      <c r="C178">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
+    </row>
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
         <v>201</v>
       </c>
       <c r="B179">
         <v>11</v>
       </c>
-      <c r="C179">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
+    </row>
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
         <v>202</v>
       </c>
       <c r="B180">
         <v>12</v>
       </c>
-      <c r="C180">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
+    </row>
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
         <v>203</v>
       </c>
       <c r="B181">
         <v>11</v>
       </c>
-      <c r="C181">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
+    </row>
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
         <v>204</v>
       </c>
       <c r="B182">
         <v>5</v>
       </c>
-      <c r="C182">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
+    </row>
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
         <v>205</v>
       </c>
       <c r="B183">
         <v>15</v>
       </c>
-      <c r="C183">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
+    </row>
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
         <v>206</v>
       </c>
       <c r="B184">
         <v>22</v>
       </c>
-      <c r="C184">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
+    </row>
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
         <v>207</v>
       </c>
       <c r="B185">
         <v>16</v>
       </c>
-      <c r="C185">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
+    </row>
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
         <v>208</v>
       </c>
       <c r="B186">
         <v>14</v>
       </c>
-      <c r="C186">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
+    </row>
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
         <v>209</v>
       </c>
       <c r="B187">
         <v>15</v>
       </c>
-      <c r="C187">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
+    </row>
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
         <v>210</v>
       </c>
       <c r="B188">
         <v>12</v>
       </c>
-      <c r="C188">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
+    </row>
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
         <v>211</v>
       </c>
       <c r="B189">
         <v>15</v>
       </c>
-      <c r="C189">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
+    </row>
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
         <v>212</v>
       </c>
       <c r="B190">
         <v>13</v>
       </c>
-      <c r="C190">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
+    </row>
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
         <v>213</v>
       </c>
       <c r="B191">
         <v>16</v>
       </c>
-      <c r="C191">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
+    </row>
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
         <v>214</v>
       </c>
       <c r="B192">
         <v>21</v>
       </c>
-      <c r="C192">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
+    </row>
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
         <v>215</v>
       </c>
       <c r="B193">
         <v>16</v>
       </c>
-      <c r="C193">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
+    </row>
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
         <v>216</v>
       </c>
       <c r="B194">
         <v>11</v>
       </c>
-      <c r="C194">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
+    </row>
+    <row r="195" spans="1:2">
       <c r="A195" t="s">
         <v>217</v>
       </c>
       <c r="B195">
         <v>22</v>
       </c>
-      <c r="C195">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
+    </row>
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
         <v>218</v>
       </c>
       <c r="B196">
         <v>15</v>
       </c>
-      <c r="C196">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
+    </row>
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
         <v>219</v>
       </c>
       <c r="B197">
         <v>19</v>
       </c>
-      <c r="C197">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
+    </row>
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
         <v>220</v>
       </c>
       <c r="B198">
         <v>19</v>
       </c>
-      <c r="C198">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
+    </row>
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
         <v>221</v>
       </c>
       <c r="B199">
         <v>17</v>
       </c>
-      <c r="C199">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
+    </row>
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
         <v>222</v>
       </c>
       <c r="B200">
         <v>27</v>
       </c>
-      <c r="C200">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
+    </row>
+    <row r="201" spans="1:2">
       <c r="A201" t="s">
         <v>223</v>
       </c>
       <c r="B201">
         <v>15</v>
       </c>
-      <c r="C201">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
+    </row>
+    <row r="202" spans="1:2">
       <c r="A202" t="s">
         <v>224</v>
       </c>
       <c r="B202">
         <v>21</v>
       </c>
-      <c r="C202">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
+    </row>
+    <row r="203" spans="1:2">
       <c r="A203" t="s">
         <v>225</v>
       </c>
       <c r="B203">
         <v>25</v>
       </c>
-      <c r="C203">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
+    </row>
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
         <v>226</v>
       </c>
       <c r="B204">
         <v>18</v>
       </c>
-      <c r="C204">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
+    </row>
+    <row r="205" spans="1:2">
       <c r="A205" t="s">
         <v>227</v>
       </c>
       <c r="B205">
         <v>30</v>
       </c>
-      <c r="C205">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
+    </row>
+    <row r="206" spans="1:2">
       <c r="A206" t="s">
         <v>228</v>
       </c>
       <c r="B206">
         <v>26</v>
       </c>
-      <c r="C206">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
+    </row>
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
         <v>229</v>
       </c>
       <c r="B207">
         <v>23</v>
       </c>
-      <c r="C207">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
+    </row>
+    <row r="208" spans="1:2">
       <c r="A208" t="s">
         <v>230</v>
       </c>
       <c r="B208">
         <v>25</v>
       </c>
-      <c r="C208">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
+    </row>
+    <row r="209" spans="1:2">
       <c r="A209" t="s">
         <v>231</v>
       </c>
       <c r="B209">
         <v>11</v>
-      </c>
-      <c r="C209">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -738,10 +738,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-25T15:06:29.680Z</t>
-  </si>
-  <si>
-    <t>2020-09-26T15:06:29.680Z</t>
+    <t>2020-09-25T16:06:34.250Z</t>
+  </si>
+  <si>
+    <t>2020-09-26T16:06:34.250Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -738,10 +738,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-25T16:06:34.250Z</t>
-  </si>
-  <si>
-    <t>2020-09-26T16:06:34.250Z</t>
+    <t>2020-09-25T17:06:36.670Z</t>
+  </si>
+  <si>
+    <t>2020-09-26T17:06:36.670Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="665">
   <si>
     <t>lastUpdate</t>
   </si>
@@ -741,10 +741,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-25T18:06:43.645Z</t>
-  </si>
-  <si>
-    <t>2020-09-26T18:06:43.645Z</t>
+    <t>2020-09-25T19:06:46.338Z</t>
+  </si>
+  <si>
+    <t>2020-09-26T19:06:46.338Z</t>
   </si>
   <si>
     <t>home</t>
@@ -11418,7 +11418,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C210"/>
+  <dimension ref="A1:B210"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11426,2309 +11426,1681 @@
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>34</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>38</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>39</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>41</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>42</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>43</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>44</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>45</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>48</v>
       </c>
       <c r="B26">
         <v>5</v>
       </c>
-      <c r="C26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>49</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>50</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>51</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>52</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>53</v>
       </c>
       <c r="B31">
         <v>4</v>
       </c>
-      <c r="C31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>54</v>
       </c>
       <c r="B32">
         <v>8</v>
       </c>
-      <c r="C32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>55</v>
       </c>
       <c r="B33">
         <v>10</v>
       </c>
-      <c r="C33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>56</v>
       </c>
       <c r="B34">
         <v>5</v>
       </c>
-      <c r="C34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>57</v>
       </c>
       <c r="B35">
         <v>7</v>
       </c>
-      <c r="C35">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>58</v>
       </c>
       <c r="B36">
         <v>6</v>
       </c>
-      <c r="C36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>59</v>
       </c>
       <c r="B37">
         <v>7</v>
       </c>
-      <c r="C37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>60</v>
       </c>
       <c r="B38">
         <v>7</v>
       </c>
-      <c r="C38">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>61</v>
       </c>
       <c r="B39">
         <v>9</v>
       </c>
-      <c r="C39">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>62</v>
       </c>
       <c r="B40">
         <v>9</v>
       </c>
-      <c r="C40">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>63</v>
       </c>
       <c r="B41">
         <v>8</v>
       </c>
-      <c r="C41">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>64</v>
       </c>
       <c r="B42">
         <v>6</v>
       </c>
-      <c r="C42">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>65</v>
       </c>
       <c r="B43">
         <v>7</v>
       </c>
-      <c r="C43">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>66</v>
       </c>
       <c r="B44">
         <v>8</v>
       </c>
-      <c r="C44">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>67</v>
       </c>
       <c r="B45">
         <v>8</v>
       </c>
-      <c r="C45">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>68</v>
       </c>
       <c r="B46">
         <v>13</v>
       </c>
-      <c r="C46">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>69</v>
       </c>
       <c r="B47">
         <v>7</v>
       </c>
-      <c r="C47">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>70</v>
       </c>
       <c r="B48">
         <v>9</v>
       </c>
-      <c r="C48">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>71</v>
       </c>
       <c r="B49">
         <v>11</v>
       </c>
-      <c r="C49">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>72</v>
       </c>
       <c r="B50">
         <v>8</v>
       </c>
-      <c r="C50">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>73</v>
       </c>
       <c r="B51">
         <v>6</v>
       </c>
-      <c r="C51">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>74</v>
       </c>
       <c r="B52">
         <v>9</v>
       </c>
-      <c r="C52">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>75</v>
       </c>
       <c r="B53">
         <v>3</v>
       </c>
-      <c r="C53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>76</v>
       </c>
       <c r="B54">
         <v>4</v>
       </c>
-      <c r="C54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>77</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
-      <c r="C55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>78</v>
       </c>
       <c r="B56">
         <v>3</v>
       </c>
-      <c r="C56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>79</v>
       </c>
       <c r="B57">
         <v>2</v>
       </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>80</v>
       </c>
       <c r="B58">
         <v>4</v>
       </c>
-      <c r="C58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>81</v>
       </c>
       <c r="B59">
         <v>5</v>
       </c>
-      <c r="C59">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>82</v>
       </c>
       <c r="B60">
         <v>6</v>
       </c>
-      <c r="C60">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>83</v>
       </c>
       <c r="B61">
         <v>6</v>
       </c>
-      <c r="C61">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>84</v>
       </c>
       <c r="B62">
         <v>4</v>
       </c>
-      <c r="C62">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>85</v>
       </c>
       <c r="B63">
         <v>3</v>
       </c>
-      <c r="C63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>86</v>
       </c>
       <c r="B64">
         <v>3</v>
       </c>
-      <c r="C64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>87</v>
       </c>
       <c r="B65">
         <v>3</v>
       </c>
-      <c r="C65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>88</v>
       </c>
       <c r="B66">
         <v>2</v>
       </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>89</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>90</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>91</v>
       </c>
       <c r="B69">
         <v>6</v>
       </c>
-      <c r="C69">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>92</v>
       </c>
       <c r="B70">
         <v>2</v>
       </c>
-      <c r="C70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>93</v>
       </c>
       <c r="B71">
         <v>5</v>
       </c>
-      <c r="C71">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>94</v>
       </c>
       <c r="B72">
         <v>5</v>
       </c>
-      <c r="C72">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>95</v>
       </c>
       <c r="B73">
         <v>3</v>
       </c>
-      <c r="C73">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>96</v>
       </c>
       <c r="B74">
         <v>3</v>
       </c>
-      <c r="C74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>97</v>
       </c>
       <c r="B75">
         <v>2</v>
       </c>
-      <c r="C75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>98</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>99</v>
       </c>
       <c r="B77">
         <v>3</v>
       </c>
-      <c r="C77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>100</v>
       </c>
       <c r="B78">
         <v>4</v>
       </c>
-      <c r="C78">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>101</v>
       </c>
       <c r="B79">
         <v>3</v>
       </c>
-      <c r="C79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>102</v>
       </c>
       <c r="B80">
         <v>2</v>
       </c>
-      <c r="C80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>103</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>104</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>105</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>106</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>107</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>108</v>
       </c>
       <c r="B86">
         <v>2</v>
       </c>
-      <c r="C86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>109</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>110</v>
       </c>
       <c r="B88">
         <v>2</v>
       </c>
-      <c r="C88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>111</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>112</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>113</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>114</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>115</v>
       </c>
       <c r="B93">
         <v>3</v>
       </c>
-      <c r="C93">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>116</v>
       </c>
       <c r="B94">
         <v>2</v>
       </c>
-      <c r="C94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>117</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>118</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>119</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>120</v>
       </c>
       <c r="B98">
         <v>4</v>
       </c>
-      <c r="C98">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>121</v>
       </c>
       <c r="B99">
         <v>2</v>
       </c>
-      <c r="C99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>122</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>123</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>124</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>125</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>126</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>127</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>128</v>
       </c>
       <c r="B106">
         <v>2</v>
       </c>
-      <c r="C106">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>129</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>130</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>131</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>132</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>133</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
-      <c r="C111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>134</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
-      <c r="C112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>135</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>136</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>137</v>
       </c>
       <c r="B115">
         <v>2</v>
       </c>
-      <c r="C115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>138</v>
       </c>
       <c r="B116">
         <v>3</v>
       </c>
-      <c r="C116">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+    </row>
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>139</v>
       </c>
       <c r="B117">
         <v>4</v>
       </c>
-      <c r="C117">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+    </row>
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>140</v>
       </c>
       <c r="B118">
         <v>3</v>
       </c>
-      <c r="C118">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+    </row>
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>141</v>
       </c>
       <c r="B119">
         <v>3</v>
       </c>
-      <c r="C119">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>142</v>
       </c>
       <c r="B120">
         <v>2</v>
       </c>
-      <c r="C120">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+    </row>
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>143</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+    </row>
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>144</v>
       </c>
       <c r="B122">
         <v>1</v>
       </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+    </row>
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>145</v>
       </c>
       <c r="B123">
         <v>3</v>
       </c>
-      <c r="C123">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+    </row>
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>146</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+    </row>
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>147</v>
       </c>
       <c r="B125">
         <v>2</v>
       </c>
-      <c r="C125">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+    </row>
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>148</v>
       </c>
       <c r="B126">
         <v>6</v>
       </c>
-      <c r="C126">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+    </row>
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>149</v>
       </c>
       <c r="B127">
         <v>2</v>
       </c>
-      <c r="C127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+    </row>
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>150</v>
       </c>
       <c r="B128">
         <v>8</v>
       </c>
-      <c r="C128">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+    </row>
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>151</v>
       </c>
       <c r="B129">
         <v>5</v>
       </c>
-      <c r="C129">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+    </row>
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>152</v>
       </c>
       <c r="B130">
         <v>5</v>
       </c>
-      <c r="C130">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+    </row>
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>153</v>
       </c>
       <c r="B131">
         <v>5</v>
       </c>
-      <c r="C131">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>154</v>
       </c>
       <c r="B132">
         <v>4</v>
       </c>
-      <c r="C132">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+    </row>
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>155</v>
       </c>
       <c r="B133">
         <v>5</v>
       </c>
-      <c r="C133">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+    </row>
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>156</v>
       </c>
       <c r="B134">
         <v>7</v>
       </c>
-      <c r="C134">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+    </row>
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>157</v>
       </c>
       <c r="B135">
         <v>4</v>
       </c>
-      <c r="C135">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+    </row>
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>158</v>
       </c>
       <c r="B136">
         <v>7</v>
       </c>
-      <c r="C136">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+    </row>
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>159</v>
       </c>
       <c r="B137">
         <v>6</v>
       </c>
-      <c r="C137">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+    </row>
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>160</v>
       </c>
       <c r="B138">
         <v>9</v>
       </c>
-      <c r="C138">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+    </row>
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>161</v>
       </c>
       <c r="B139">
         <v>12</v>
       </c>
-      <c r="C139">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+    </row>
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>162</v>
       </c>
       <c r="B140">
         <v>8</v>
       </c>
-      <c r="C140">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+    </row>
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>163</v>
       </c>
       <c r="B141">
         <v>10</v>
       </c>
-      <c r="C141">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+    </row>
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
         <v>164</v>
       </c>
       <c r="B142">
         <v>12</v>
       </c>
-      <c r="C142">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+    </row>
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
         <v>165</v>
       </c>
       <c r="B143">
         <v>9</v>
       </c>
-      <c r="C143">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+    </row>
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
         <v>166</v>
       </c>
       <c r="B144">
         <v>5</v>
       </c>
-      <c r="C144">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+    </row>
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>167</v>
       </c>
       <c r="B145">
         <v>16</v>
       </c>
-      <c r="C145">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+    </row>
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>168</v>
       </c>
       <c r="B146">
         <v>8</v>
       </c>
-      <c r="C146">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+    </row>
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>169</v>
       </c>
       <c r="B147">
         <v>7</v>
       </c>
-      <c r="C147">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+    </row>
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
         <v>170</v>
       </c>
       <c r="B148">
         <v>10</v>
       </c>
-      <c r="C148">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+    </row>
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
         <v>171</v>
       </c>
       <c r="B149">
         <v>7</v>
       </c>
-      <c r="C149">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+    </row>
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
         <v>172</v>
       </c>
       <c r="B150">
         <v>8</v>
       </c>
-      <c r="C150">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+    </row>
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
         <v>173</v>
       </c>
       <c r="B151">
         <v>15</v>
       </c>
-      <c r="C151">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+    </row>
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>174</v>
       </c>
       <c r="B152">
         <v>14</v>
       </c>
-      <c r="C152">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+    </row>
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
         <v>175</v>
       </c>
       <c r="B153">
         <v>15</v>
       </c>
-      <c r="C153">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+    </row>
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>176</v>
       </c>
       <c r="B154">
         <v>14</v>
       </c>
-      <c r="C154">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+    </row>
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
         <v>177</v>
       </c>
       <c r="B155">
         <v>11</v>
       </c>
-      <c r="C155">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
+    </row>
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>178</v>
       </c>
       <c r="B156">
         <v>15</v>
       </c>
-      <c r="C156">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+    </row>
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
         <v>179</v>
       </c>
       <c r="B157">
         <v>11</v>
       </c>
-      <c r="C157">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+    </row>
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
         <v>180</v>
       </c>
       <c r="B158">
         <v>10</v>
       </c>
-      <c r="C158">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+    </row>
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
         <v>181</v>
       </c>
       <c r="B159">
         <v>9</v>
       </c>
-      <c r="C159">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
+    </row>
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
         <v>182</v>
       </c>
       <c r="B160">
         <v>11</v>
       </c>
-      <c r="C160">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+    </row>
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
         <v>183</v>
       </c>
       <c r="B161">
         <v>14</v>
       </c>
-      <c r="C161">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+    </row>
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
         <v>184</v>
       </c>
       <c r="B162">
         <v>7</v>
       </c>
-      <c r="C162">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
+    </row>
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
         <v>185</v>
       </c>
       <c r="B163">
         <v>15</v>
       </c>
-      <c r="C163">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+    </row>
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
         <v>186</v>
       </c>
       <c r="B164">
         <v>11</v>
       </c>
-      <c r="C164">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+    </row>
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
         <v>187</v>
       </c>
       <c r="B165">
         <v>14</v>
       </c>
-      <c r="C165">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
+    </row>
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
         <v>188</v>
       </c>
       <c r="B166">
         <v>17</v>
       </c>
-      <c r="C166">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+    </row>
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
         <v>189</v>
       </c>
       <c r="B167">
         <v>12</v>
       </c>
-      <c r="C167">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+    </row>
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
         <v>190</v>
       </c>
       <c r="B168">
         <v>10</v>
       </c>
-      <c r="C168">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+    </row>
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
         <v>191</v>
       </c>
       <c r="B169">
         <v>17</v>
       </c>
-      <c r="C169">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+    </row>
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
         <v>192</v>
       </c>
       <c r="B170">
         <v>6</v>
       </c>
-      <c r="C170">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+    </row>
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
         <v>193</v>
       </c>
       <c r="B171">
         <v>13</v>
       </c>
-      <c r="C171">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
+    </row>
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
         <v>194</v>
       </c>
       <c r="B172">
         <v>13</v>
       </c>
-      <c r="C172">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
+    </row>
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
         <v>195</v>
       </c>
       <c r="B173">
         <v>13</v>
       </c>
-      <c r="C173">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
+    </row>
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
         <v>196</v>
       </c>
       <c r="B174">
         <v>12</v>
       </c>
-      <c r="C174">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
+    </row>
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
         <v>197</v>
       </c>
       <c r="B175">
         <v>12</v>
       </c>
-      <c r="C175">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
+    </row>
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
         <v>198</v>
       </c>
       <c r="B176">
         <v>13</v>
       </c>
-      <c r="C176">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
+    </row>
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
         <v>199</v>
       </c>
       <c r="B177">
         <v>15</v>
       </c>
-      <c r="C177">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
+    </row>
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
         <v>200</v>
       </c>
       <c r="B178">
         <v>18</v>
       </c>
-      <c r="C178">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
+    </row>
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
         <v>201</v>
       </c>
       <c r="B179">
         <v>11</v>
       </c>
-      <c r="C179">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
+    </row>
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
         <v>202</v>
       </c>
       <c r="B180">
         <v>12</v>
       </c>
-      <c r="C180">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
+    </row>
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
         <v>203</v>
       </c>
       <c r="B181">
         <v>11</v>
       </c>
-      <c r="C181">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
+    </row>
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
         <v>204</v>
       </c>
       <c r="B182">
         <v>5</v>
       </c>
-      <c r="C182">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
+    </row>
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
         <v>205</v>
       </c>
       <c r="B183">
         <v>15</v>
       </c>
-      <c r="C183">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
+    </row>
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
         <v>206</v>
       </c>
       <c r="B184">
         <v>22</v>
       </c>
-      <c r="C184">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
+    </row>
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
         <v>207</v>
       </c>
       <c r="B185">
         <v>16</v>
       </c>
-      <c r="C185">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
+    </row>
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
         <v>208</v>
       </c>
       <c r="B186">
         <v>14</v>
       </c>
-      <c r="C186">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
+    </row>
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
         <v>209</v>
       </c>
       <c r="B187">
         <v>15</v>
       </c>
-      <c r="C187">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
+    </row>
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
         <v>210</v>
       </c>
       <c r="B188">
         <v>12</v>
       </c>
-      <c r="C188">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
+    </row>
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
         <v>211</v>
       </c>
       <c r="B189">
         <v>15</v>
       </c>
-      <c r="C189">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
+    </row>
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
         <v>212</v>
       </c>
       <c r="B190">
         <v>13</v>
       </c>
-      <c r="C190">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
+    </row>
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
         <v>213</v>
       </c>
       <c r="B191">
         <v>16</v>
       </c>
-      <c r="C191">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
+    </row>
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
         <v>214</v>
       </c>
       <c r="B192">
         <v>21</v>
       </c>
-      <c r="C192">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
+    </row>
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
         <v>215</v>
       </c>
       <c r="B193">
         <v>16</v>
       </c>
-      <c r="C193">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
+    </row>
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
         <v>216</v>
       </c>
       <c r="B194">
         <v>11</v>
       </c>
-      <c r="C194">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
+    </row>
+    <row r="195" spans="1:2">
       <c r="A195" t="s">
         <v>217</v>
       </c>
       <c r="B195">
         <v>22</v>
       </c>
-      <c r="C195">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
+    </row>
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
         <v>218</v>
       </c>
       <c r="B196">
         <v>14</v>
       </c>
-      <c r="C196">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
+    </row>
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
         <v>219</v>
       </c>
       <c r="B197">
         <v>17</v>
       </c>
-      <c r="C197">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
+    </row>
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
         <v>220</v>
       </c>
       <c r="B198">
         <v>17</v>
       </c>
-      <c r="C198">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
+    </row>
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
         <v>221</v>
       </c>
       <c r="B199">
         <v>16</v>
       </c>
-      <c r="C199">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
+    </row>
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
         <v>222</v>
       </c>
       <c r="B200">
         <v>24</v>
       </c>
-      <c r="C200">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
+    </row>
+    <row r="201" spans="1:2">
       <c r="A201" t="s">
         <v>223</v>
       </c>
       <c r="B201">
         <v>15</v>
       </c>
-      <c r="C201">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
+    </row>
+    <row r="202" spans="1:2">
       <c r="A202" t="s">
         <v>224</v>
       </c>
       <c r="B202">
         <v>21</v>
       </c>
-      <c r="C202">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
+    </row>
+    <row r="203" spans="1:2">
       <c r="A203" t="s">
         <v>225</v>
       </c>
       <c r="B203">
         <v>23</v>
       </c>
-      <c r="C203">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
+    </row>
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
         <v>226</v>
       </c>
       <c r="B204">
         <v>18</v>
       </c>
-      <c r="C204">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
+    </row>
+    <row r="205" spans="1:2">
       <c r="A205" t="s">
         <v>227</v>
       </c>
       <c r="B205">
         <v>30</v>
       </c>
-      <c r="C205">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
+    </row>
+    <row r="206" spans="1:2">
       <c r="A206" t="s">
         <v>228</v>
       </c>
       <c r="B206">
         <v>24</v>
       </c>
-      <c r="C206">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
+    </row>
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
         <v>229</v>
       </c>
       <c r="B207">
         <v>18</v>
       </c>
-      <c r="C207">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
+    </row>
+    <row r="208" spans="1:2">
       <c r="A208" t="s">
         <v>230</v>
       </c>
       <c r="B208">
         <v>24</v>
       </c>
-      <c r="C208">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
+    </row>
+    <row r="209" spans="1:2">
       <c r="A209" t="s">
         <v>231</v>
       </c>
       <c r="B209">
         <v>24</v>
       </c>
-      <c r="C209">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
+    </row>
+    <row r="210" spans="1:2">
       <c r="A210" t="s">
         <v>232</v>
       </c>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="665">
   <si>
     <t>lastUpdate</t>
   </si>
@@ -741,10 +741,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-25T20:06:48.320Z</t>
-  </si>
-  <si>
-    <t>2020-09-26T20:06:48.320Z</t>
+    <t>2020-09-25T21:06:50.114Z</t>
+  </si>
+  <si>
+    <t>2020-09-26T21:06:50.114Z</t>
   </si>
   <si>
     <t>home</t>
@@ -11418,7 +11418,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C210"/>
+  <dimension ref="A1:B210"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11426,2317 +11426,1686 @@
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>34</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>38</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>39</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>41</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>42</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>43</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>44</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>45</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>48</v>
       </c>
       <c r="B26">
         <v>5</v>
       </c>
-      <c r="C26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>49</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>50</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>51</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>52</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>53</v>
       </c>
       <c r="B31">
         <v>4</v>
       </c>
-      <c r="C31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>54</v>
       </c>
       <c r="B32">
         <v>8</v>
       </c>
-      <c r="C32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>55</v>
       </c>
       <c r="B33">
         <v>10</v>
       </c>
-      <c r="C33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>56</v>
       </c>
       <c r="B34">
         <v>5</v>
       </c>
-      <c r="C34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>57</v>
       </c>
       <c r="B35">
         <v>7</v>
       </c>
-      <c r="C35">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>58</v>
       </c>
       <c r="B36">
         <v>6</v>
       </c>
-      <c r="C36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>59</v>
       </c>
       <c r="B37">
         <v>7</v>
       </c>
-      <c r="C37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>60</v>
       </c>
       <c r="B38">
         <v>7</v>
       </c>
-      <c r="C38">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>61</v>
       </c>
       <c r="B39">
         <v>9</v>
       </c>
-      <c r="C39">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>62</v>
       </c>
       <c r="B40">
         <v>9</v>
       </c>
-      <c r="C40">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>63</v>
       </c>
       <c r="B41">
         <v>8</v>
       </c>
-      <c r="C41">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>64</v>
       </c>
       <c r="B42">
         <v>6</v>
       </c>
-      <c r="C42">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>65</v>
       </c>
       <c r="B43">
         <v>7</v>
       </c>
-      <c r="C43">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>66</v>
       </c>
       <c r="B44">
         <v>8</v>
       </c>
-      <c r="C44">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>67</v>
       </c>
       <c r="B45">
         <v>8</v>
       </c>
-      <c r="C45">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>68</v>
       </c>
       <c r="B46">
         <v>13</v>
       </c>
-      <c r="C46">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>69</v>
       </c>
       <c r="B47">
         <v>7</v>
       </c>
-      <c r="C47">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>70</v>
       </c>
       <c r="B48">
         <v>9</v>
       </c>
-      <c r="C48">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>71</v>
       </c>
       <c r="B49">
         <v>11</v>
       </c>
-      <c r="C49">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>72</v>
       </c>
       <c r="B50">
         <v>8</v>
       </c>
-      <c r="C50">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>73</v>
       </c>
       <c r="B51">
         <v>6</v>
       </c>
-      <c r="C51">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>74</v>
       </c>
       <c r="B52">
         <v>9</v>
       </c>
-      <c r="C52">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>75</v>
       </c>
       <c r="B53">
         <v>3</v>
       </c>
-      <c r="C53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>76</v>
       </c>
       <c r="B54">
         <v>4</v>
       </c>
-      <c r="C54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>77</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
-      <c r="C55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>78</v>
       </c>
       <c r="B56">
         <v>3</v>
       </c>
-      <c r="C56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>79</v>
       </c>
       <c r="B57">
         <v>2</v>
       </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>80</v>
       </c>
       <c r="B58">
         <v>4</v>
       </c>
-      <c r="C58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>81</v>
       </c>
       <c r="B59">
         <v>5</v>
       </c>
-      <c r="C59">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>82</v>
       </c>
       <c r="B60">
         <v>6</v>
       </c>
-      <c r="C60">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>83</v>
       </c>
       <c r="B61">
         <v>6</v>
       </c>
-      <c r="C61">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>84</v>
       </c>
       <c r="B62">
         <v>4</v>
       </c>
-      <c r="C62">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>85</v>
       </c>
       <c r="B63">
         <v>3</v>
       </c>
-      <c r="C63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>86</v>
       </c>
       <c r="B64">
         <v>3</v>
       </c>
-      <c r="C64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>87</v>
       </c>
       <c r="B65">
         <v>3</v>
       </c>
-      <c r="C65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>88</v>
       </c>
       <c r="B66">
         <v>2</v>
       </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>89</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>90</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>91</v>
       </c>
       <c r="B69">
         <v>6</v>
       </c>
-      <c r="C69">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>92</v>
       </c>
       <c r="B70">
         <v>2</v>
       </c>
-      <c r="C70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>93</v>
       </c>
       <c r="B71">
         <v>5</v>
       </c>
-      <c r="C71">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>94</v>
       </c>
       <c r="B72">
         <v>5</v>
       </c>
-      <c r="C72">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>95</v>
       </c>
       <c r="B73">
         <v>3</v>
       </c>
-      <c r="C73">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>96</v>
       </c>
       <c r="B74">
         <v>3</v>
       </c>
-      <c r="C74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>97</v>
       </c>
       <c r="B75">
         <v>2</v>
       </c>
-      <c r="C75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>98</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>99</v>
       </c>
       <c r="B77">
         <v>3</v>
       </c>
-      <c r="C77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>100</v>
       </c>
       <c r="B78">
         <v>4</v>
       </c>
-      <c r="C78">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>101</v>
       </c>
       <c r="B79">
         <v>3</v>
       </c>
-      <c r="C79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>102</v>
       </c>
       <c r="B80">
         <v>2</v>
       </c>
-      <c r="C80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>103</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>104</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>105</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>106</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>107</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>108</v>
       </c>
       <c r="B86">
         <v>2</v>
       </c>
-      <c r="C86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>109</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>110</v>
       </c>
       <c r="B88">
         <v>2</v>
       </c>
-      <c r="C88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>111</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>112</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>113</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>114</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>115</v>
       </c>
       <c r="B93">
         <v>3</v>
       </c>
-      <c r="C93">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>116</v>
       </c>
       <c r="B94">
         <v>2</v>
       </c>
-      <c r="C94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>117</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>118</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>119</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>120</v>
       </c>
       <c r="B98">
         <v>4</v>
       </c>
-      <c r="C98">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>121</v>
       </c>
       <c r="B99">
         <v>2</v>
       </c>
-      <c r="C99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>122</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>123</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>124</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>125</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>126</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>127</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>128</v>
       </c>
       <c r="B106">
         <v>2</v>
       </c>
-      <c r="C106">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>129</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>130</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>131</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>132</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>133</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
-      <c r="C111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>134</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
-      <c r="C112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>135</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>136</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>137</v>
       </c>
       <c r="B115">
         <v>2</v>
       </c>
-      <c r="C115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>138</v>
       </c>
       <c r="B116">
         <v>3</v>
       </c>
-      <c r="C116">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+    </row>
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>139</v>
       </c>
       <c r="B117">
         <v>4</v>
       </c>
-      <c r="C117">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+    </row>
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>140</v>
       </c>
       <c r="B118">
         <v>3</v>
       </c>
-      <c r="C118">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+    </row>
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>141</v>
       </c>
       <c r="B119">
         <v>3</v>
       </c>
-      <c r="C119">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>142</v>
       </c>
       <c r="B120">
         <v>2</v>
       </c>
-      <c r="C120">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+    </row>
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>143</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+    </row>
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>144</v>
       </c>
       <c r="B122">
         <v>1</v>
       </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+    </row>
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>145</v>
       </c>
       <c r="B123">
         <v>3</v>
       </c>
-      <c r="C123">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+    </row>
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>146</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+    </row>
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>147</v>
       </c>
       <c r="B125">
         <v>2</v>
       </c>
-      <c r="C125">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+    </row>
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>148</v>
       </c>
       <c r="B126">
         <v>6</v>
       </c>
-      <c r="C126">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+    </row>
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>149</v>
       </c>
       <c r="B127">
         <v>2</v>
       </c>
-      <c r="C127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+    </row>
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>150</v>
       </c>
       <c r="B128">
         <v>8</v>
       </c>
-      <c r="C128">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+    </row>
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>151</v>
       </c>
       <c r="B129">
         <v>5</v>
       </c>
-      <c r="C129">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+    </row>
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>152</v>
       </c>
       <c r="B130">
         <v>5</v>
       </c>
-      <c r="C130">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+    </row>
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>153</v>
       </c>
       <c r="B131">
         <v>5</v>
       </c>
-      <c r="C131">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>154</v>
       </c>
       <c r="B132">
         <v>4</v>
       </c>
-      <c r="C132">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+    </row>
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>155</v>
       </c>
       <c r="B133">
         <v>5</v>
       </c>
-      <c r="C133">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+    </row>
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>156</v>
       </c>
       <c r="B134">
         <v>7</v>
       </c>
-      <c r="C134">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+    </row>
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>157</v>
       </c>
       <c r="B135">
         <v>4</v>
       </c>
-      <c r="C135">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+    </row>
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>158</v>
       </c>
       <c r="B136">
         <v>7</v>
       </c>
-      <c r="C136">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+    </row>
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>159</v>
       </c>
       <c r="B137">
         <v>6</v>
       </c>
-      <c r="C137">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+    </row>
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>160</v>
       </c>
       <c r="B138">
         <v>9</v>
       </c>
-      <c r="C138">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+    </row>
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>161</v>
       </c>
       <c r="B139">
         <v>12</v>
       </c>
-      <c r="C139">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+    </row>
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>162</v>
       </c>
       <c r="B140">
         <v>8</v>
       </c>
-      <c r="C140">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+    </row>
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>163</v>
       </c>
       <c r="B141">
         <v>10</v>
       </c>
-      <c r="C141">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+    </row>
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
         <v>164</v>
       </c>
       <c r="B142">
         <v>12</v>
       </c>
-      <c r="C142">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+    </row>
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
         <v>165</v>
       </c>
       <c r="B143">
         <v>9</v>
       </c>
-      <c r="C143">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+    </row>
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
         <v>166</v>
       </c>
       <c r="B144">
         <v>5</v>
       </c>
-      <c r="C144">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+    </row>
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>167</v>
       </c>
       <c r="B145">
         <v>16</v>
       </c>
-      <c r="C145">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+    </row>
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>168</v>
       </c>
       <c r="B146">
         <v>8</v>
       </c>
-      <c r="C146">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+    </row>
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>169</v>
       </c>
       <c r="B147">
         <v>7</v>
       </c>
-      <c r="C147">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+    </row>
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
         <v>170</v>
       </c>
       <c r="B148">
         <v>10</v>
       </c>
-      <c r="C148">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+    </row>
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
         <v>171</v>
       </c>
       <c r="B149">
         <v>7</v>
       </c>
-      <c r="C149">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+    </row>
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
         <v>172</v>
       </c>
       <c r="B150">
         <v>8</v>
       </c>
-      <c r="C150">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+    </row>
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
         <v>173</v>
       </c>
       <c r="B151">
         <v>15</v>
       </c>
-      <c r="C151">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+    </row>
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>174</v>
       </c>
       <c r="B152">
         <v>14</v>
       </c>
-      <c r="C152">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+    </row>
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
         <v>175</v>
       </c>
       <c r="B153">
         <v>15</v>
       </c>
-      <c r="C153">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+    </row>
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>176</v>
       </c>
       <c r="B154">
         <v>14</v>
       </c>
-      <c r="C154">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+    </row>
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
         <v>177</v>
       </c>
       <c r="B155">
         <v>11</v>
       </c>
-      <c r="C155">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
+    </row>
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>178</v>
       </c>
       <c r="B156">
         <v>15</v>
       </c>
-      <c r="C156">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+    </row>
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
         <v>179</v>
       </c>
       <c r="B157">
         <v>11</v>
       </c>
-      <c r="C157">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+    </row>
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
         <v>180</v>
       </c>
       <c r="B158">
         <v>10</v>
       </c>
-      <c r="C158">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+    </row>
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
         <v>181</v>
       </c>
       <c r="B159">
         <v>9</v>
       </c>
-      <c r="C159">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
+    </row>
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
         <v>182</v>
       </c>
       <c r="B160">
         <v>11</v>
       </c>
-      <c r="C160">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+    </row>
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
         <v>183</v>
       </c>
       <c r="B161">
         <v>14</v>
       </c>
-      <c r="C161">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+    </row>
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
         <v>184</v>
       </c>
       <c r="B162">
         <v>7</v>
       </c>
-      <c r="C162">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
+    </row>
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
         <v>185</v>
       </c>
       <c r="B163">
         <v>15</v>
       </c>
-      <c r="C163">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+    </row>
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
         <v>186</v>
       </c>
       <c r="B164">
         <v>11</v>
       </c>
-      <c r="C164">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+    </row>
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
         <v>187</v>
       </c>
       <c r="B165">
         <v>14</v>
       </c>
-      <c r="C165">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
+    </row>
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
         <v>188</v>
       </c>
       <c r="B166">
         <v>17</v>
       </c>
-      <c r="C166">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+    </row>
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
         <v>189</v>
       </c>
       <c r="B167">
         <v>12</v>
       </c>
-      <c r="C167">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+    </row>
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
         <v>190</v>
       </c>
       <c r="B168">
         <v>10</v>
       </c>
-      <c r="C168">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+    </row>
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
         <v>191</v>
       </c>
       <c r="B169">
         <v>17</v>
       </c>
-      <c r="C169">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+    </row>
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
         <v>192</v>
       </c>
       <c r="B170">
         <v>6</v>
       </c>
-      <c r="C170">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+    </row>
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
         <v>193</v>
       </c>
       <c r="B171">
         <v>13</v>
       </c>
-      <c r="C171">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
+    </row>
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
         <v>194</v>
       </c>
       <c r="B172">
         <v>13</v>
       </c>
-      <c r="C172">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
+    </row>
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
         <v>195</v>
       </c>
       <c r="B173">
         <v>13</v>
       </c>
-      <c r="C173">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
+    </row>
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
         <v>196</v>
       </c>
       <c r="B174">
         <v>12</v>
       </c>
-      <c r="C174">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
+    </row>
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
         <v>197</v>
       </c>
       <c r="B175">
         <v>12</v>
       </c>
-      <c r="C175">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
+    </row>
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
         <v>198</v>
       </c>
       <c r="B176">
         <v>13</v>
       </c>
-      <c r="C176">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
+    </row>
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
         <v>199</v>
       </c>
       <c r="B177">
         <v>15</v>
       </c>
-      <c r="C177">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
+    </row>
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
         <v>200</v>
       </c>
       <c r="B178">
         <v>18</v>
       </c>
-      <c r="C178">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
+    </row>
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
         <v>201</v>
       </c>
       <c r="B179">
         <v>11</v>
       </c>
-      <c r="C179">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
+    </row>
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
         <v>202</v>
       </c>
       <c r="B180">
         <v>12</v>
       </c>
-      <c r="C180">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
+    </row>
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
         <v>203</v>
       </c>
       <c r="B181">
         <v>11</v>
       </c>
-      <c r="C181">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
+    </row>
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
         <v>204</v>
       </c>
       <c r="B182">
         <v>5</v>
       </c>
-      <c r="C182">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
+    </row>
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
         <v>205</v>
       </c>
       <c r="B183">
         <v>15</v>
       </c>
-      <c r="C183">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
+    </row>
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
         <v>206</v>
       </c>
       <c r="B184">
         <v>22</v>
       </c>
-      <c r="C184">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
+    </row>
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
         <v>207</v>
       </c>
       <c r="B185">
         <v>16</v>
       </c>
-      <c r="C185">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
+    </row>
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
         <v>208</v>
       </c>
       <c r="B186">
         <v>14</v>
       </c>
-      <c r="C186">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
+    </row>
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
         <v>209</v>
       </c>
       <c r="B187">
         <v>15</v>
       </c>
-      <c r="C187">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
+    </row>
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
         <v>210</v>
       </c>
       <c r="B188">
         <v>12</v>
       </c>
-      <c r="C188">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
+    </row>
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
         <v>211</v>
       </c>
       <c r="B189">
         <v>15</v>
       </c>
-      <c r="C189">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
+    </row>
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
         <v>212</v>
       </c>
       <c r="B190">
         <v>13</v>
       </c>
-      <c r="C190">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
+    </row>
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
         <v>213</v>
       </c>
       <c r="B191">
         <v>16</v>
       </c>
-      <c r="C191">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
+    </row>
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
         <v>214</v>
       </c>
       <c r="B192">
         <v>21</v>
       </c>
-      <c r="C192">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
+    </row>
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
         <v>215</v>
       </c>
       <c r="B193">
         <v>16</v>
       </c>
-      <c r="C193">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
+    </row>
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
         <v>216</v>
       </c>
       <c r="B194">
         <v>11</v>
       </c>
-      <c r="C194">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
+    </row>
+    <row r="195" spans="1:2">
       <c r="A195" t="s">
         <v>217</v>
       </c>
       <c r="B195">
         <v>22</v>
       </c>
-      <c r="C195">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
+    </row>
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
         <v>218</v>
       </c>
       <c r="B196">
         <v>15</v>
       </c>
-      <c r="C196">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
+    </row>
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
         <v>219</v>
       </c>
       <c r="B197">
         <v>19</v>
       </c>
-      <c r="C197">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
+    </row>
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
         <v>220</v>
       </c>
       <c r="B198">
         <v>19</v>
       </c>
-      <c r="C198">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
+    </row>
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
         <v>221</v>
       </c>
       <c r="B199">
         <v>17</v>
       </c>
-      <c r="C199">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
+    </row>
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
         <v>222</v>
       </c>
       <c r="B200">
         <v>27</v>
       </c>
-      <c r="C200">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
+    </row>
+    <row r="201" spans="1:2">
       <c r="A201" t="s">
         <v>223</v>
       </c>
       <c r="B201">
         <v>15</v>
       </c>
-      <c r="C201">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
+    </row>
+    <row r="202" spans="1:2">
       <c r="A202" t="s">
         <v>224</v>
       </c>
       <c r="B202">
         <v>21</v>
       </c>
-      <c r="C202">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
+    </row>
+    <row r="203" spans="1:2">
       <c r="A203" t="s">
         <v>225</v>
       </c>
       <c r="B203">
         <v>25</v>
       </c>
-      <c r="C203">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
+    </row>
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
         <v>226</v>
       </c>
       <c r="B204">
         <v>18</v>
       </c>
-      <c r="C204">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
+    </row>
+    <row r="205" spans="1:2">
       <c r="A205" t="s">
         <v>227</v>
       </c>
       <c r="B205">
         <v>30</v>
       </c>
-      <c r="C205">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
+    </row>
+    <row r="206" spans="1:2">
       <c r="A206" t="s">
         <v>228</v>
       </c>
       <c r="B206">
         <v>26</v>
       </c>
-      <c r="C206">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
+    </row>
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
         <v>229</v>
       </c>
       <c r="B207">
         <v>21</v>
       </c>
-      <c r="C207">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
+    </row>
+    <row r="208" spans="1:2">
       <c r="A208" t="s">
         <v>230</v>
       </c>
       <c r="B208">
         <v>26</v>
       </c>
-      <c r="C208">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
+    </row>
+    <row r="209" spans="1:2">
       <c r="A209" t="s">
         <v>231</v>
       </c>
       <c r="B209">
         <v>24</v>
       </c>
-      <c r="C209">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
+    </row>
+    <row r="210" spans="1:2">
       <c r="A210" t="s">
         <v>232</v>
       </c>
       <c r="B210">
         <v>16</v>
-      </c>
-      <c r="C210">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -741,10 +741,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-25T21:06:50.114Z</t>
-  </si>
-  <si>
-    <t>2020-09-26T21:06:50.114Z</t>
+    <t>2020-09-25T22:06:54.674Z</t>
+  </si>
+  <si>
+    <t>2020-09-26T22:06:54.674Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -741,10 +741,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-25T22:06:54.674Z</t>
-  </si>
-  <si>
-    <t>2020-09-26T22:06:54.674Z</t>
+    <t>2020-09-25T23:06:58.637Z</t>
+  </si>
+  <si>
+    <t>2020-09-26T23:06:58.637Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="665">
   <si>
     <t>lastUpdate</t>
   </si>
@@ -741,10 +741,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-25T23:06:58.637Z</t>
-  </si>
-  <si>
-    <t>2020-09-26T23:06:58.637Z</t>
+    <t>2020-09-26T00:22:06.540Z</t>
+  </si>
+  <si>
+    <t>2020-09-27T00:22:06.540Z</t>
   </si>
   <si>
     <t>home</t>
@@ -8382,7 +8382,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C228"/>
+  <dimension ref="A1:C229"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10848,6 +10848,17 @@
       </c>
       <c r="C228">
         <v>9.19679717917653</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>232</v>
+      </c>
+      <c r="B229">
+        <v>0.8980209375533788</v>
+      </c>
+      <c r="C229">
+        <v>77.53213955899243</v>
       </c>
     </row>
   </sheetData>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -741,10 +741,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-26T00:22:06.540Z</t>
-  </si>
-  <si>
-    <t>2020-09-27T00:22:06.540Z</t>
+    <t>2020-09-26T01:16:10.301Z</t>
+  </si>
+  <si>
+    <t>2020-09-27T01:16:10.301Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -741,10 +741,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-26T01:16:10.301Z</t>
-  </si>
-  <si>
-    <t>2020-09-27T01:16:10.301Z</t>
+    <t>2020-09-26T02:07:16.182Z</t>
+  </si>
+  <si>
+    <t>2020-09-27T02:07:16.182Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -741,10 +741,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-26T02:07:16.182Z</t>
-  </si>
-  <si>
-    <t>2020-09-27T02:07:16.182Z</t>
+    <t>2020-09-26T03:07:21.910Z</t>
+  </si>
+  <si>
+    <t>2020-09-27T03:07:21.910Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -741,10 +741,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-26T03:07:21.910Z</t>
-  </si>
-  <si>
-    <t>2020-09-27T03:07:21.910Z</t>
+    <t>2020-09-26T04:07:26.433Z</t>
+  </si>
+  <si>
+    <t>2020-09-27T04:07:26.433Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -741,10 +741,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-26T04:07:26.433Z</t>
-  </si>
-  <si>
-    <t>2020-09-27T04:07:26.433Z</t>
+    <t>2020-09-26T05:07:31.340Z</t>
+  </si>
+  <si>
+    <t>2020-09-27T05:07:31.340Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -741,10 +741,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-26T05:07:31.340Z</t>
-  </si>
-  <si>
-    <t>2020-09-27T05:07:31.340Z</t>
+    <t>2020-09-26T06:07:34.638Z</t>
+  </si>
+  <si>
+    <t>2020-09-27T06:07:34.638Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -741,10 +741,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-26T06:07:34.638Z</t>
-  </si>
-  <si>
-    <t>2020-09-27T06:07:34.638Z</t>
+    <t>2020-09-26T07:07:36.929Z</t>
+  </si>
+  <si>
+    <t>2020-09-27T07:07:36.929Z</t>
   </si>
   <si>
     <t>home</t>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="667">
   <si>
     <t>lastUpdate</t>
   </si>
@@ -744,10 +744,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-26T08:07:40.046Z</t>
-  </si>
-  <si>
-    <t>2020-09-27T08:07:40.046Z</t>
+    <t>2020-09-26T09:07:42.629Z</t>
+  </si>
+  <si>
+    <t>2020-09-27T09:07:42.629Z</t>
   </si>
   <si>
     <t>home</t>
@@ -11446,7 +11446,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C211"/>
+  <dimension ref="A1:B211"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11454,2320 +11454,1689 @@
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>34</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>38</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>39</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>41</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>42</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>43</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>44</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>45</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>48</v>
       </c>
       <c r="B26">
         <v>5</v>
       </c>
-      <c r="C26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>49</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>50</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>51</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>52</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>53</v>
       </c>
       <c r="B31">
         <v>4</v>
       </c>
-      <c r="C31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>54</v>
       </c>
       <c r="B32">
         <v>8</v>
       </c>
-      <c r="C32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>55</v>
       </c>
       <c r="B33">
         <v>10</v>
       </c>
-      <c r="C33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>56</v>
       </c>
       <c r="B34">
         <v>5</v>
       </c>
-      <c r="C34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>57</v>
       </c>
       <c r="B35">
         <v>7</v>
       </c>
-      <c r="C35">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>58</v>
       </c>
       <c r="B36">
         <v>6</v>
       </c>
-      <c r="C36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>59</v>
       </c>
       <c r="B37">
         <v>7</v>
       </c>
-      <c r="C37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>60</v>
       </c>
       <c r="B38">
         <v>7</v>
       </c>
-      <c r="C38">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>61</v>
       </c>
       <c r="B39">
         <v>9</v>
       </c>
-      <c r="C39">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>62</v>
       </c>
       <c r="B40">
         <v>9</v>
       </c>
-      <c r="C40">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>63</v>
       </c>
       <c r="B41">
         <v>8</v>
       </c>
-      <c r="C41">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>64</v>
       </c>
       <c r="B42">
         <v>6</v>
       </c>
-      <c r="C42">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>65</v>
       </c>
       <c r="B43">
         <v>7</v>
       </c>
-      <c r="C43">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>66</v>
       </c>
       <c r="B44">
         <v>8</v>
       </c>
-      <c r="C44">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>67</v>
       </c>
       <c r="B45">
         <v>8</v>
       </c>
-      <c r="C45">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>68</v>
       </c>
       <c r="B46">
         <v>13</v>
       </c>
-      <c r="C46">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>69</v>
       </c>
       <c r="B47">
         <v>7</v>
       </c>
-      <c r="C47">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>70</v>
       </c>
       <c r="B48">
         <v>9</v>
       </c>
-      <c r="C48">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>71</v>
       </c>
       <c r="B49">
         <v>11</v>
       </c>
-      <c r="C49">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>72</v>
       </c>
       <c r="B50">
         <v>8</v>
       </c>
-      <c r="C50">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>73</v>
       </c>
       <c r="B51">
         <v>6</v>
       </c>
-      <c r="C51">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>74</v>
       </c>
       <c r="B52">
         <v>9</v>
       </c>
-      <c r="C52">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>75</v>
       </c>
       <c r="B53">
         <v>3</v>
       </c>
-      <c r="C53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>76</v>
       </c>
       <c r="B54">
         <v>4</v>
       </c>
-      <c r="C54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>77</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
-      <c r="C55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>78</v>
       </c>
       <c r="B56">
         <v>3</v>
       </c>
-      <c r="C56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>79</v>
       </c>
       <c r="B57">
         <v>2</v>
       </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>80</v>
       </c>
       <c r="B58">
         <v>4</v>
       </c>
-      <c r="C58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>81</v>
       </c>
       <c r="B59">
         <v>5</v>
       </c>
-      <c r="C59">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>82</v>
       </c>
       <c r="B60">
         <v>6</v>
       </c>
-      <c r="C60">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>83</v>
       </c>
       <c r="B61">
         <v>6</v>
       </c>
-      <c r="C61">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>84</v>
       </c>
       <c r="B62">
         <v>4</v>
       </c>
-      <c r="C62">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>85</v>
       </c>
       <c r="B63">
         <v>3</v>
       </c>
-      <c r="C63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>86</v>
       </c>
       <c r="B64">
         <v>3</v>
       </c>
-      <c r="C64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>87</v>
       </c>
       <c r="B65">
         <v>3</v>
       </c>
-      <c r="C65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>88</v>
       </c>
       <c r="B66">
         <v>2</v>
       </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>89</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>90</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>91</v>
       </c>
       <c r="B69">
         <v>6</v>
       </c>
-      <c r="C69">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>92</v>
       </c>
       <c r="B70">
         <v>2</v>
       </c>
-      <c r="C70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>93</v>
       </c>
       <c r="B71">
         <v>5</v>
       </c>
-      <c r="C71">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>94</v>
       </c>
       <c r="B72">
         <v>5</v>
       </c>
-      <c r="C72">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>95</v>
       </c>
       <c r="B73">
         <v>3</v>
       </c>
-      <c r="C73">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>96</v>
       </c>
       <c r="B74">
         <v>3</v>
       </c>
-      <c r="C74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>97</v>
       </c>
       <c r="B75">
         <v>2</v>
       </c>
-      <c r="C75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>98</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>99</v>
       </c>
       <c r="B77">
         <v>3</v>
       </c>
-      <c r="C77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>100</v>
       </c>
       <c r="B78">
         <v>4</v>
       </c>
-      <c r="C78">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>101</v>
       </c>
       <c r="B79">
         <v>3</v>
       </c>
-      <c r="C79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>102</v>
       </c>
       <c r="B80">
         <v>2</v>
       </c>
-      <c r="C80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>103</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>104</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>105</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>106</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>107</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>108</v>
       </c>
       <c r="B86">
         <v>2</v>
       </c>
-      <c r="C86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>109</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>110</v>
       </c>
       <c r="B88">
         <v>2</v>
       </c>
-      <c r="C88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>111</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>112</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>113</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>114</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>115</v>
       </c>
       <c r="B93">
         <v>3</v>
       </c>
-      <c r="C93">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>116</v>
       </c>
       <c r="B94">
         <v>2</v>
       </c>
-      <c r="C94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>117</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>118</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>119</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>120</v>
       </c>
       <c r="B98">
         <v>4</v>
       </c>
-      <c r="C98">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>121</v>
       </c>
       <c r="B99">
         <v>2</v>
       </c>
-      <c r="C99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>122</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>123</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>124</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>125</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>126</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>127</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>128</v>
       </c>
       <c r="B106">
         <v>2</v>
       </c>
-      <c r="C106">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>129</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>130</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>131</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>132</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>133</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
-      <c r="C111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>134</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
-      <c r="C112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>135</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>136</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>137</v>
       </c>
       <c r="B115">
         <v>2</v>
       </c>
-      <c r="C115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>138</v>
       </c>
       <c r="B116">
         <v>3</v>
       </c>
-      <c r="C116">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+    </row>
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>139</v>
       </c>
       <c r="B117">
         <v>4</v>
       </c>
-      <c r="C117">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+    </row>
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>140</v>
       </c>
       <c r="B118">
         <v>3</v>
       </c>
-      <c r="C118">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+    </row>
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>141</v>
       </c>
       <c r="B119">
         <v>3</v>
       </c>
-      <c r="C119">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>142</v>
       </c>
       <c r="B120">
         <v>2</v>
       </c>
-      <c r="C120">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+    </row>
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>143</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+    </row>
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>144</v>
       </c>
       <c r="B122">
         <v>1</v>
       </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+    </row>
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>145</v>
       </c>
       <c r="B123">
         <v>3</v>
       </c>
-      <c r="C123">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+    </row>
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>146</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+    </row>
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>147</v>
       </c>
       <c r="B125">
         <v>2</v>
       </c>
-      <c r="C125">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+    </row>
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>148</v>
       </c>
       <c r="B126">
         <v>6</v>
       </c>
-      <c r="C126">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+    </row>
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>149</v>
       </c>
       <c r="B127">
         <v>2</v>
       </c>
-      <c r="C127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+    </row>
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>150</v>
       </c>
       <c r="B128">
         <v>8</v>
       </c>
-      <c r="C128">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+    </row>
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>151</v>
       </c>
       <c r="B129">
         <v>5</v>
       </c>
-      <c r="C129">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+    </row>
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>152</v>
       </c>
       <c r="B130">
         <v>5</v>
       </c>
-      <c r="C130">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+    </row>
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>153</v>
       </c>
       <c r="B131">
         <v>5</v>
       </c>
-      <c r="C131">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>154</v>
       </c>
       <c r="B132">
         <v>4</v>
       </c>
-      <c r="C132">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+    </row>
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>155</v>
       </c>
       <c r="B133">
         <v>5</v>
       </c>
-      <c r="C133">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+    </row>
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>156</v>
       </c>
       <c r="B134">
         <v>7</v>
       </c>
-      <c r="C134">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+    </row>
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>157</v>
       </c>
       <c r="B135">
         <v>4</v>
       </c>
-      <c r="C135">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+    </row>
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>158</v>
       </c>
       <c r="B136">
         <v>7</v>
       </c>
-      <c r="C136">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+    </row>
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>159</v>
       </c>
       <c r="B137">
         <v>6</v>
       </c>
-      <c r="C137">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+    </row>
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>160</v>
       </c>
       <c r="B138">
         <v>9</v>
       </c>
-      <c r="C138">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+    </row>
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>161</v>
       </c>
       <c r="B139">
         <v>12</v>
       </c>
-      <c r="C139">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+    </row>
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>162</v>
       </c>
       <c r="B140">
         <v>8</v>
       </c>
-      <c r="C140">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+    </row>
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>163</v>
       </c>
       <c r="B141">
         <v>10</v>
       </c>
-      <c r="C141">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+    </row>
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
         <v>164</v>
       </c>
       <c r="B142">
         <v>12</v>
       </c>
-      <c r="C142">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+    </row>
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
         <v>165</v>
       </c>
       <c r="B143">
         <v>9</v>
       </c>
-      <c r="C143">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+    </row>
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
         <v>166</v>
       </c>
       <c r="B144">
         <v>5</v>
       </c>
-      <c r="C144">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+    </row>
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>167</v>
       </c>
       <c r="B145">
         <v>16</v>
       </c>
-      <c r="C145">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+    </row>
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>168</v>
       </c>
       <c r="B146">
         <v>8</v>
       </c>
-      <c r="C146">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+    </row>
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>169</v>
       </c>
       <c r="B147">
         <v>7</v>
       </c>
-      <c r="C147">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+    </row>
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
         <v>170</v>
       </c>
       <c r="B148">
         <v>10</v>
       </c>
-      <c r="C148">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+    </row>
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
         <v>171</v>
       </c>
       <c r="B149">
         <v>7</v>
       </c>
-      <c r="C149">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+    </row>
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
         <v>172</v>
       </c>
       <c r="B150">
         <v>8</v>
       </c>
-      <c r="C150">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+    </row>
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
         <v>173</v>
       </c>
       <c r="B151">
         <v>15</v>
       </c>
-      <c r="C151">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+    </row>
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>174</v>
       </c>
       <c r="B152">
         <v>14</v>
       </c>
-      <c r="C152">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+    </row>
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
         <v>175</v>
       </c>
       <c r="B153">
         <v>15</v>
       </c>
-      <c r="C153">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+    </row>
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>176</v>
       </c>
       <c r="B154">
         <v>14</v>
       </c>
-      <c r="C154">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+    </row>
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
         <v>177</v>
       </c>
       <c r="B155">
         <v>11</v>
       </c>
-      <c r="C155">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
+    </row>
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>178</v>
       </c>
       <c r="B156">
         <v>15</v>
       </c>
-      <c r="C156">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+    </row>
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
         <v>179</v>
       </c>
       <c r="B157">
         <v>11</v>
       </c>
-      <c r="C157">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+    </row>
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
         <v>180</v>
       </c>
       <c r="B158">
         <v>10</v>
       </c>
-      <c r="C158">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+    </row>
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
         <v>181</v>
       </c>
       <c r="B159">
         <v>9</v>
       </c>
-      <c r="C159">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
+    </row>
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
         <v>182</v>
       </c>
       <c r="B160">
         <v>11</v>
       </c>
-      <c r="C160">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+    </row>
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
         <v>183</v>
       </c>
       <c r="B161">
         <v>14</v>
       </c>
-      <c r="C161">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+    </row>
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
         <v>184</v>
       </c>
       <c r="B162">
         <v>7</v>
       </c>
-      <c r="C162">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
+    </row>
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
         <v>185</v>
       </c>
       <c r="B163">
         <v>15</v>
       </c>
-      <c r="C163">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+    </row>
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
         <v>186</v>
       </c>
       <c r="B164">
         <v>11</v>
       </c>
-      <c r="C164">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+    </row>
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
         <v>187</v>
       </c>
       <c r="B165">
         <v>14</v>
       </c>
-      <c r="C165">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
+    </row>
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
         <v>188</v>
       </c>
       <c r="B166">
         <v>17</v>
       </c>
-      <c r="C166">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+    </row>
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
         <v>189</v>
       </c>
       <c r="B167">
         <v>12</v>
       </c>
-      <c r="C167">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+    </row>
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
         <v>190</v>
       </c>
       <c r="B168">
         <v>10</v>
       </c>
-      <c r="C168">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+    </row>
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
         <v>191</v>
       </c>
       <c r="B169">
         <v>17</v>
       </c>
-      <c r="C169">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+    </row>
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
         <v>192</v>
       </c>
       <c r="B170">
         <v>6</v>
       </c>
-      <c r="C170">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+    </row>
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
         <v>193</v>
       </c>
       <c r="B171">
         <v>13</v>
       </c>
-      <c r="C171">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
+    </row>
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
         <v>194</v>
       </c>
       <c r="B172">
         <v>13</v>
       </c>
-      <c r="C172">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
+    </row>
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
         <v>195</v>
       </c>
       <c r="B173">
         <v>13</v>
       </c>
-      <c r="C173">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
+    </row>
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
         <v>196</v>
       </c>
       <c r="B174">
         <v>12</v>
       </c>
-      <c r="C174">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
+    </row>
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
         <v>197</v>
       </c>
       <c r="B175">
         <v>12</v>
       </c>
-      <c r="C175">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
+    </row>
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
         <v>198</v>
       </c>
       <c r="B176">
         <v>13</v>
       </c>
-      <c r="C176">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
+    </row>
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
         <v>199</v>
       </c>
       <c r="B177">
         <v>15</v>
       </c>
-      <c r="C177">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
+    </row>
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
         <v>200</v>
       </c>
       <c r="B178">
         <v>18</v>
       </c>
-      <c r="C178">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
+    </row>
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
         <v>201</v>
       </c>
       <c r="B179">
         <v>11</v>
       </c>
-      <c r="C179">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
+    </row>
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
         <v>202</v>
       </c>
       <c r="B180">
         <v>12</v>
       </c>
-      <c r="C180">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
+    </row>
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
         <v>203</v>
       </c>
       <c r="B181">
         <v>11</v>
       </c>
-      <c r="C181">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
+    </row>
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
         <v>204</v>
       </c>
       <c r="B182">
         <v>5</v>
       </c>
-      <c r="C182">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
+    </row>
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
         <v>205</v>
       </c>
       <c r="B183">
         <v>15</v>
       </c>
-      <c r="C183">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
+    </row>
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
         <v>206</v>
       </c>
       <c r="B184">
         <v>22</v>
       </c>
-      <c r="C184">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
+    </row>
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
         <v>207</v>
       </c>
       <c r="B185">
         <v>16</v>
       </c>
-      <c r="C185">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
+    </row>
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
         <v>208</v>
       </c>
       <c r="B186">
         <v>14</v>
       </c>
-      <c r="C186">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
+    </row>
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
         <v>209</v>
       </c>
       <c r="B187">
         <v>15</v>
       </c>
-      <c r="C187">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
+    </row>
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
         <v>210</v>
       </c>
       <c r="B188">
         <v>12</v>
       </c>
-      <c r="C188">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
+    </row>
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
         <v>211</v>
       </c>
       <c r="B189">
         <v>15</v>
       </c>
-      <c r="C189">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
+    </row>
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
         <v>212</v>
       </c>
       <c r="B190">
         <v>13</v>
       </c>
-      <c r="C190">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
+    </row>
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
         <v>213</v>
       </c>
       <c r="B191">
         <v>16</v>
       </c>
-      <c r="C191">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
+    </row>
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
         <v>214</v>
       </c>
       <c r="B192">
         <v>21</v>
       </c>
-      <c r="C192">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
+    </row>
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
         <v>215</v>
       </c>
       <c r="B193">
         <v>16</v>
       </c>
-      <c r="C193">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
+    </row>
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
         <v>216</v>
       </c>
       <c r="B194">
         <v>11</v>
       </c>
-      <c r="C194">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
+    </row>
+    <row r="195" spans="1:2">
       <c r="A195" t="s">
         <v>217</v>
       </c>
       <c r="B195">
         <v>22</v>
       </c>
-      <c r="C195">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
+    </row>
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
         <v>218</v>
       </c>
       <c r="B196">
         <v>15</v>
       </c>
-      <c r="C196">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
+    </row>
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
         <v>219</v>
       </c>
       <c r="B197">
         <v>19</v>
       </c>
-      <c r="C197">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
+    </row>
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
         <v>220</v>
       </c>
       <c r="B198">
         <v>19</v>
       </c>
-      <c r="C198">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
+    </row>
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
         <v>221</v>
       </c>
       <c r="B199">
         <v>17</v>
       </c>
-      <c r="C199">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
+    </row>
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
         <v>222</v>
       </c>
       <c r="B200">
         <v>27</v>
       </c>
-      <c r="C200">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
+    </row>
+    <row r="201" spans="1:2">
       <c r="A201" t="s">
         <v>223</v>
       </c>
       <c r="B201">
         <v>15</v>
       </c>
-      <c r="C201">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
+    </row>
+    <row r="202" spans="1:2">
       <c r="A202" t="s">
         <v>224</v>
       </c>
       <c r="B202">
         <v>21</v>
       </c>
-      <c r="C202">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
+    </row>
+    <row r="203" spans="1:2">
       <c r="A203" t="s">
         <v>225</v>
       </c>
       <c r="B203">
         <v>25</v>
       </c>
-      <c r="C203">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
+    </row>
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
         <v>226</v>
       </c>
       <c r="B204">
         <v>18</v>
       </c>
-      <c r="C204">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
+    </row>
+    <row r="205" spans="1:2">
       <c r="A205" t="s">
         <v>227</v>
       </c>
       <c r="B205">
         <v>30</v>
       </c>
-      <c r="C205">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
+    </row>
+    <row r="206" spans="1:2">
       <c r="A206" t="s">
         <v>228</v>
       </c>
       <c r="B206">
         <v>26</v>
       </c>
-      <c r="C206">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
+    </row>
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
         <v>229</v>
       </c>
       <c r="B207">
         <v>21</v>
       </c>
-      <c r="C207">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
+    </row>
+    <row r="208" spans="1:2">
       <c r="A208" t="s">
         <v>230</v>
       </c>
       <c r="B208">
         <v>26</v>
       </c>
-      <c r="C208">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
+    </row>
+    <row r="209" spans="1:2">
       <c r="A209" t="s">
         <v>231</v>
       </c>
       <c r="B209">
         <v>22</v>
       </c>
-      <c r="C209">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
+    </row>
+    <row r="210" spans="1:2">
       <c r="A210" t="s">
         <v>232</v>
       </c>
       <c r="B210">
         <v>24</v>
       </c>
-      <c r="C210">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
+    </row>
+    <row r="211" spans="1:2">
       <c r="A211" t="s">
         <v>233</v>
       </c>

--- a/out/covid.xlsx
+++ b/out/covid.xlsx
@@ -744,10 +744,10 @@
     <t>moderate</t>
   </si>
   <si>
-    <t>2020-09-26T09:07:42.629Z</t>
-  </si>
-  <si>
-    <t>2020-09-27T09:07:42.629Z</t>
+    <t>2020-09-26T10:07:45.983Z</t>
+  </si>
+  <si>
+    <t>2020-09-27T10:07:45.983Z</t>
   </si>
   <si>
     <t>home</t>
